--- a/historico_oc.xlsx
+++ b/historico_oc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50046F4D-3ADF-46A5-B5E3-908EACA7C854}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670C137D-D0C1-459E-9157-B9D6E9A17F8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="B2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B2" s="3">
         <v>3.0280999999999998</v>
@@ -597,7 +597,7 @@
         <v>2.9456000000000002</v>
       </c>
       <c r="R2" s="3">
-        <v>2.8957277992582786</v>
+        <v>2.9471424078443467</v>
       </c>
       <c r="S2" s="3">
         <v>3.0117267346938776</v>

--- a/historico_oc.xlsx
+++ b/historico_oc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670C137D-D0C1-459E-9157-B9D6E9A17F8E}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D2E5C6-63A4-476A-93CF-70D0EF206B32}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
@@ -99,10 +99,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="20">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00_)"/>
+    <numFmt numFmtId="168" formatCode="000,000"/>
+    <numFmt numFmtId="169" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;Cr$&quot;#,##0;[Red]&quot;Cr$&quot;#,##0&quot;-&quot;"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;Cr$&quot;* #,##0_);_(&quot;Cr$&quot;* \(#,##0\);_(&quot;Cr$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="\(0.0\);\(\-0.0\)"/>
+    <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="174" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="175" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="General_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +143,172 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="36"/>
+      <name val="µ¸¿ò"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="µ¸¿ò"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="24"/>
+      <name val="System"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="굴림체"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="바탕체"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +327,138 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="22"/>
+        <bgColor indexed="35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -153,9 +466,541 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="48"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="11" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0"/>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="10" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="28" fillId="18" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -168,8 +1013,327 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="320">
+    <cellStyle name="          _x000d__x000a_shell=progman.exe_x000d__x000a_m" xfId="11" xr:uid="{DC9B9B38-8B1E-4915-BF9F-AEDC6A4AA9C1}"/>
+    <cellStyle name="¿­¾îº» ÇÏÀÌÆÛ¸µÅ©" xfId="12" xr:uid="{8232264B-0B2A-4DB3-875C-50081A24F63A}"/>
+    <cellStyle name="½°Ç¥_PRECOEE" xfId="13" xr:uid="{3898DC74-D37D-4575-ABCF-2BCBAA72E702}"/>
+    <cellStyle name="Ç¥ÁØ_PRECOEE" xfId="14" xr:uid="{AA1C6408-D418-4995-A4D8-1F137E1BCD32}"/>
+    <cellStyle name="Cancel" xfId="15" xr:uid="{EE37A80E-98BB-491D-A817-38975FF2990C}"/>
+    <cellStyle name="category" xfId="16" xr:uid="{0F3A5DAE-4891-4A24-8E17-764C511625AF}"/>
+    <cellStyle name="ÇÏÀÌÆÛ¸µÅ©" xfId="17" xr:uid="{93D38E9B-A761-4A0B-B1DB-B386D8639E12}"/>
+    <cellStyle name="Comma0" xfId="18" xr:uid="{D0517A53-EB9A-4FCA-A565-2911F385F5E7}"/>
+    <cellStyle name="Currency0" xfId="19" xr:uid="{7E94B271-9489-44CB-9FA7-1C91D9DAA186}"/>
+    <cellStyle name="Date" xfId="20" xr:uid="{D955F9A2-CEE0-49F4-82C7-D325EC6BCDA6}"/>
+    <cellStyle name="Euro" xfId="21" xr:uid="{13C791C3-4B25-41EE-978C-8B7F41D63CF7}"/>
+    <cellStyle name="Fixed" xfId="22" xr:uid="{271E81B1-7B4C-4D60-8F20-5C2E2A9129FF}"/>
+    <cellStyle name="Grey" xfId="23" xr:uid="{BEB2545B-E340-4851-A126-5AE6C617205F}"/>
+    <cellStyle name="HEADER" xfId="24" xr:uid="{6183C565-121B-47FE-A716-775525AE6284}"/>
+    <cellStyle name="Header1" xfId="25" xr:uid="{40CDC9FA-CA12-42E2-8E06-10E5C61A0F75}"/>
+    <cellStyle name="Header2" xfId="26" xr:uid="{AEE8F433-3536-4DC7-8EE0-4213A9F8A652}"/>
+    <cellStyle name="Input [yellow]" xfId="27" xr:uid="{C7B850B9-AEF8-48E4-9466-5143F305908D}"/>
+    <cellStyle name="Model" xfId="28" xr:uid="{0AB1C687-6CB5-4970-A479-DC83875387CB}"/>
+    <cellStyle name="Moeda [0]?Efetivo de pessoal" xfId="29" xr:uid="{5E6BED61-CEB2-4397-B752-561625305814}"/>
+    <cellStyle name="Moeda [0]೟Efetivo de pessoal" xfId="30" xr:uid="{8FA6F324-E938-474C-AF7C-81FC98D9A752}"/>
+    <cellStyle name="Moeda {0]_TMIN" xfId="31" xr:uid="{A41DE5C6-3367-4C75-9FEB-33C4127BF7AF}"/>
+    <cellStyle name="Moeda 2" xfId="32" xr:uid="{C31FAD48-5980-46CA-886F-D105E91FB7A4}"/>
+    <cellStyle name="Moeda 2 2" xfId="33" xr:uid="{F485A15D-4FE9-4F3B-9438-0A3683232ECD}"/>
+    <cellStyle name="Moeda 2 2 2" xfId="84" xr:uid="{500DCC1C-02E9-4AC1-A156-E6FFF7B663E1}"/>
+    <cellStyle name="Moeda 2 3" xfId="85" xr:uid="{C1F91AA1-BA75-48C3-AEB9-1A9669E62E35}"/>
+    <cellStyle name="Moeda 2 3 2" xfId="86" xr:uid="{3E361E13-4CE9-441D-8F81-A34ECEF48488}"/>
+    <cellStyle name="Moeda 2 3 2 2" xfId="87" xr:uid="{3CFE6EBD-3F0D-4CAD-A9BE-56E3F5EC325E}"/>
+    <cellStyle name="Moeda 2 3 2 2 2" xfId="88" xr:uid="{47D4A04B-FC5C-474E-B953-F599CE47CE1F}"/>
+    <cellStyle name="Moeda 2 3 2 2 2 2" xfId="89" xr:uid="{D2E5548C-09A6-4E4D-9F3D-6EA5C369BEF2}"/>
+    <cellStyle name="Moeda 2 3 2 2 3" xfId="90" xr:uid="{0BFBA9ED-18BC-4480-964F-32FE8EDA1D52}"/>
+    <cellStyle name="Moeda 2 3 2 2 3 2" xfId="91" xr:uid="{C21AB444-928B-4E9B-A03D-89A62D2DC8F3}"/>
+    <cellStyle name="Moeda 2 3 2 2 4" xfId="92" xr:uid="{47CCE2F4-29B9-4A7E-BFB6-C8F0430052F9}"/>
+    <cellStyle name="Moeda 2 3 2 3" xfId="93" xr:uid="{78E176B0-327F-453C-BC19-3773CC24645B}"/>
+    <cellStyle name="Moeda 2 3 2 3 2" xfId="94" xr:uid="{56C44D06-6E24-45F5-AC05-55A7D6BC9304}"/>
+    <cellStyle name="Moeda 2 3 2 4" xfId="95" xr:uid="{5C560090-40DF-4B83-B07E-DB07E322D972}"/>
+    <cellStyle name="Moeda 2 3 2 4 2" xfId="96" xr:uid="{2858F247-9FBA-4F27-AF48-8B49FE1BA59B}"/>
+    <cellStyle name="Moeda 2 3 2 5" xfId="97" xr:uid="{68560D37-EEF9-4203-8928-6DBEED30CB10}"/>
+    <cellStyle name="Moeda 2 3 3" xfId="98" xr:uid="{94895E91-653C-4125-9CC6-F22999A51053}"/>
+    <cellStyle name="Moeda 2 3 3 2" xfId="99" xr:uid="{F1A47394-4C18-4E04-9497-9FA7F7EC4CF9}"/>
+    <cellStyle name="Moeda 2 3 3 2 2" xfId="100" xr:uid="{6B7B43C8-699D-415E-9C1D-6621C585EBF5}"/>
+    <cellStyle name="Moeda 2 3 3 3" xfId="101" xr:uid="{6AAC3F01-7E73-471A-B5EC-AC9AEEC24E5B}"/>
+    <cellStyle name="Moeda 2 3 3 3 2" xfId="102" xr:uid="{5D2AEB31-93B3-4290-A1F5-16CDC9FA6FD5}"/>
+    <cellStyle name="Moeda 2 3 3 4" xfId="103" xr:uid="{B8F57F6A-FE34-4EC4-8820-4566D780E075}"/>
+    <cellStyle name="Moeda 2 3 4" xfId="104" xr:uid="{FDC37CD1-6B43-4BEA-9954-06959A444A88}"/>
+    <cellStyle name="Moeda 2 3 4 2" xfId="105" xr:uid="{EA811C1B-4CCE-42AF-AA8D-58A46A1AB37E}"/>
+    <cellStyle name="Moeda 2 3 5" xfId="106" xr:uid="{5B8B048F-AFD6-4B8E-9A7F-61F1E29B40A1}"/>
+    <cellStyle name="Moeda 2 3 5 2" xfId="107" xr:uid="{1DEFBB68-931B-4C56-9BCE-78BFEA9DC543}"/>
+    <cellStyle name="Moeda 2 3 6" xfId="108" xr:uid="{9B0D927C-B901-4EB4-B53E-FB8FE2122D29}"/>
+    <cellStyle name="Moeda 2 4" xfId="83" xr:uid="{98023CF3-8FCD-462B-8255-B218F2D2048A}"/>
+    <cellStyle name="Moeda 3" xfId="34" xr:uid="{6743A4BB-567E-4803-AF3E-BEC10F0CC58E}"/>
+    <cellStyle name="Moeda 3 2" xfId="109" xr:uid="{DC098D0D-8D61-4FCC-81F8-4CB0F814C7D3}"/>
+    <cellStyle name="Moeda 4" xfId="110" xr:uid="{CCBBF868-794F-45F9-AB26-B2B104398FC8}"/>
+    <cellStyle name="Moeda 4 2" xfId="111" xr:uid="{29B70A25-3BB8-435B-A9C9-10429BF84C44}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="35" xr:uid="{E5510958-55D1-4E5F-8550-742C168DAFCE}"/>
+    <cellStyle name="Normal 10" xfId="82" xr:uid="{D5C4410C-5049-4537-ADA4-8C87340F0776}"/>
+    <cellStyle name="Normal 12 2" xfId="112" xr:uid="{EEC6C703-642C-42C3-BF26-DC2F25B193A8}"/>
+    <cellStyle name="Normal 12 23" xfId="36" xr:uid="{1A9E2BB0-AFE6-4F01-924B-090677E6EA8E}"/>
+    <cellStyle name="Normal 16" xfId="81" xr:uid="{E3373C10-8DBE-49CC-948E-67C31C900D0C}"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{2E97C2DB-245C-46D5-BBB2-2B563D67B6FC}"/>
+    <cellStyle name="Normal 2 2" xfId="37" xr:uid="{CD03C05F-F548-4846-B68F-3F11B0372899}"/>
+    <cellStyle name="Normal 2 2 2" xfId="113" xr:uid="{9C187CC8-4AB6-45A0-9061-B9E95FDDCB08}"/>
+    <cellStyle name="Normal 2 3" xfId="77" xr:uid="{F7F04213-E9BA-441D-9E1C-E609E89BBC58}"/>
+    <cellStyle name="Normal 2 3 2" xfId="115" xr:uid="{73269181-93B9-4DF5-AF91-A85CE896ABD3}"/>
+    <cellStyle name="Normal 2 3 3" xfId="114" xr:uid="{1965808E-DD01-4F20-99E0-72675B4BC9A7}"/>
+    <cellStyle name="Normal 2 4" xfId="116" xr:uid="{01E6D2E6-AFA6-40A4-A980-030264CCAAE6}"/>
+    <cellStyle name="Normal 2 5" xfId="38" xr:uid="{C7E1F05E-3350-4368-B1F9-BB8B0FE1B38A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C06AECCE-A54E-4FAF-8A43-DA1EA6792E46}"/>
+    <cellStyle name="Normal 3 2" xfId="39" xr:uid="{43F554E9-5B6A-40B0-9BD7-3BF802D95C99}"/>
+    <cellStyle name="Normal 3 3" xfId="117" xr:uid="{AA5D0261-3717-4B46-A391-256C9795E170}"/>
+    <cellStyle name="Normal 4" xfId="40" xr:uid="{F8FC177F-9C79-472D-B605-1BF7C9BB425F}"/>
+    <cellStyle name="Normal 4 2" xfId="118" xr:uid="{EC21B7D3-9C50-4A05-BB36-B37B2B869CB7}"/>
+    <cellStyle name="Normal 5" xfId="41" xr:uid="{6016B3FC-ED0E-4E70-8FFF-54A051819C96}"/>
+    <cellStyle name="Normal 5 2" xfId="119" xr:uid="{70B7053D-1D54-44DE-BE7C-192E0E26F015}"/>
+    <cellStyle name="Normal 50" xfId="3" xr:uid="{992587B2-A500-4597-B247-9EFED86D9F32}"/>
+    <cellStyle name="Normal 50 2" xfId="8" xr:uid="{ADDD498A-E74F-4E34-A212-4A3E357C9FE6}"/>
+    <cellStyle name="Normal 51" xfId="5" xr:uid="{E038F9B6-CA1F-4CF6-83CE-C3034896466A}"/>
+    <cellStyle name="Normal 52" xfId="10" xr:uid="{197575D9-DC0E-4077-A596-43562E8FD20A}"/>
+    <cellStyle name="Normal 6" xfId="42" xr:uid="{B2E4A8A3-FA37-4112-AF9F-470F6A70DE94}"/>
+    <cellStyle name="Normal 6 2" xfId="120" xr:uid="{45D786B0-8B95-431C-8D7B-F68B938B20AA}"/>
+    <cellStyle name="Normal 63" xfId="80" xr:uid="{4A907B6D-D548-4887-9C4D-6EFEEFA0BF51}"/>
+    <cellStyle name="Normal 7" xfId="43" xr:uid="{6CD38319-FBC9-4E80-9A02-181DC41EAFD9}"/>
+    <cellStyle name="Normal 7 2" xfId="44" xr:uid="{5C7CF438-BF09-4624-A833-205B3906DF0E}"/>
+    <cellStyle name="Normal 7 3" xfId="45" xr:uid="{23714B0E-6C14-4A2D-88F1-2D8D0C667D33}"/>
+    <cellStyle name="Normal 7 4" xfId="46" xr:uid="{EA5BA67A-2F93-43B2-A97C-81C25A54C36F}"/>
+    <cellStyle name="Normal 7 5" xfId="121" xr:uid="{ABFA62A5-7322-4FD4-B85E-6DC670AFC34F}"/>
+    <cellStyle name="Normal 73" xfId="47" xr:uid="{6F65DDC8-0C05-4D6B-AC8D-0E56C4B56617}"/>
+    <cellStyle name="Normal 8" xfId="48" xr:uid="{489E8A46-8028-46E9-9808-A5D02BE7E133}"/>
+    <cellStyle name="Normal 8 2" xfId="122" xr:uid="{03B68904-DB20-46D8-BE0B-1F5BE0B595DC}"/>
+    <cellStyle name="Normal 9" xfId="318" xr:uid="{42730D32-5ED3-41C0-B679-4436F2C49D42}"/>
+    <cellStyle name="Normal1" xfId="49" xr:uid="{6310EE4A-1E7E-4F7A-AC9B-01C235CB64CE}"/>
+    <cellStyle name="Percent [2]" xfId="50" xr:uid="{7CD6604B-2717-4AFB-A948-16DA335AB9AB}"/>
+    <cellStyle name="PillarText" xfId="51" xr:uid="{8477F236-0673-430D-BA50-24ECB4129D6E}"/>
+    <cellStyle name="Porcentagem 13 2" xfId="6" xr:uid="{B1102BFC-A3DA-48DB-9BE5-8933A8AD9566}"/>
+    <cellStyle name="Porcentagem 2" xfId="2" xr:uid="{E720AA4F-6C98-432B-A018-9721AB33E022}"/>
+    <cellStyle name="Porcentagem 2 2" xfId="78" xr:uid="{9CBC5F02-2681-4EDB-93E0-0A9C87E08F4A}"/>
+    <cellStyle name="Porcentagem 2 3" xfId="52" xr:uid="{3A25BC60-3C34-47CC-9360-4C65FE57EF1D}"/>
+    <cellStyle name="Porcentagem 3" xfId="123" xr:uid="{0B68DB58-2525-46B6-9023-F09E5F44ECF9}"/>
+    <cellStyle name="Porcentagem 4" xfId="124" xr:uid="{16D00A87-3CC8-4484-BBBB-F4FAC5C461F9}"/>
+    <cellStyle name="Porcentagem 4 2" xfId="125" xr:uid="{3158137E-F6B6-451F-8EC0-9B424B57A99F}"/>
+    <cellStyle name="Porcentagem 5" xfId="126" xr:uid="{3CDAA05A-E125-45FA-B59D-82CE7A5441C4}"/>
+    <cellStyle name="Porcentagem 5 2" xfId="127" xr:uid="{C0613F10-B443-4EBD-AB93-4B2E71FEFAA7}"/>
+    <cellStyle name="Porcentagem 6" xfId="128" xr:uid="{3EA81ECE-E332-4EE6-8948-FBD675D13BCD}"/>
+    <cellStyle name="PSChar" xfId="53" xr:uid="{FCD8C597-0779-4C29-AD35-3281DAB3C434}"/>
+    <cellStyle name="PSDate" xfId="54" xr:uid="{17394DCB-5B34-4DE6-8E4E-48257138B82F}"/>
+    <cellStyle name="PSDec" xfId="55" xr:uid="{B7D327EC-5DD7-40F7-B1C0-E6820A281AA1}"/>
+    <cellStyle name="PSHeading" xfId="56" xr:uid="{510F0144-3D2A-422F-9941-56EBE20217FD}"/>
+    <cellStyle name="PSInt" xfId="57" xr:uid="{208D345E-D2F4-4791-9DD8-2D596E4F4D7A}"/>
+    <cellStyle name="PSSpacer" xfId="58" xr:uid="{8ECF3C68-3F1D-498E-9FB5-3B228D86EDAA}"/>
+    <cellStyle name="SAPBEXaggData" xfId="129" xr:uid="{75B17E00-A42C-49E5-B224-1FF56C697E35}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="130" xr:uid="{B689658B-D346-4AD3-859D-123F69322E04}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="131" xr:uid="{08CE4A2F-8FB4-4ADE-8A20-8A42797C8F93}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="132" xr:uid="{687EA9AB-0A4D-41C3-921B-9A97E9BE9D5A}"/>
+    <cellStyle name="SAPBEXchaText" xfId="133" xr:uid="{19A91ADA-AEE2-4499-9194-19AF6732D1B0}"/>
+    <cellStyle name="SAPBEXchaText 2" xfId="134" xr:uid="{8BDB2F13-E771-4C61-B10E-06CADAFC5AE3}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="135" xr:uid="{9CC4289B-45C5-4BD8-BBF2-27C0A1C14304}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="136" xr:uid="{19D38EA4-A711-417A-8250-E043DEB8573B}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="137" xr:uid="{B62050FD-E6AA-48FA-A861-9D9E313A3E89}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="138" xr:uid="{D575AC18-A67D-49EC-8452-6DA6836AD821}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="139" xr:uid="{A2C227A9-FB69-426F-BDDC-F3C75696A9F4}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="140" xr:uid="{2669277A-D72E-4FAB-AE56-E39E9EE2AF02}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="141" xr:uid="{8E30F4B9-C41B-42E0-B3F2-722097AD5C86}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="142" xr:uid="{5FA271D0-828C-4908-8D17-0DB7BD0D14F9}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="143" xr:uid="{05455F02-557B-476D-B6C4-560CCCFBBC1F}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="144" xr:uid="{D6E39594-6DDF-4A43-94C8-7A1C093593EE}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="145" xr:uid="{90CF3B25-0382-4DA7-9603-574A28EA1570}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="146" xr:uid="{8E7816D1-5837-4ADD-846F-559609FB99E8}"/>
+    <cellStyle name="SAPBEXformats" xfId="147" xr:uid="{C1970ABA-8999-4B25-BF38-22C3F2AB3705}"/>
+    <cellStyle name="SAPBEXformats 2" xfId="148" xr:uid="{D563E1DB-4ADB-4BE0-8149-74BC042E5D57}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="149" xr:uid="{C07D9797-BA2A-4B4B-A2F8-B47684F0E2C1}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="150" xr:uid="{411BB2C3-0024-4BB4-811D-75E46D3CD452}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="151" xr:uid="{447E269B-F7E2-451C-A604-1200D4BE9629}"/>
+    <cellStyle name="SAPBEXHLevel0 2" xfId="152" xr:uid="{5990090D-EBCC-4237-BCD5-E25E493102E4}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="153" xr:uid="{58CF1C9E-70E5-43C3-9A0F-C2DE0101A774}"/>
+    <cellStyle name="SAPBEXHLevel0X 2" xfId="154" xr:uid="{B325BEFB-1A83-434C-931E-3B25B46C5F86}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="155" xr:uid="{F5132671-8A3D-484F-AD20-C44995B33210}"/>
+    <cellStyle name="SAPBEXHLevel1 2" xfId="156" xr:uid="{909882EF-60BD-4149-B34D-2D096C12D635}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="157" xr:uid="{8D058A97-7BAC-49EC-BD6F-46F8422EE3CF}"/>
+    <cellStyle name="SAPBEXHLevel1X 2" xfId="158" xr:uid="{EE4D5A0F-5227-44BB-8F4E-6792357833EB}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="159" xr:uid="{8480DA25-B461-4970-A7AA-A175F90B8AFA}"/>
+    <cellStyle name="SAPBEXHLevel2 2" xfId="160" xr:uid="{3565EB92-F3AB-4121-BFC2-C92C6508686D}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="161" xr:uid="{535B047D-A0D0-4F70-BD19-F45F15754901}"/>
+    <cellStyle name="SAPBEXHLevel2X 2" xfId="162" xr:uid="{FDF766E0-AE9B-44FD-92BA-B33FF4E8F3FD}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="163" xr:uid="{5A4660FA-5DA3-40BB-9503-AADC77B75A47}"/>
+    <cellStyle name="SAPBEXHLevel3 2" xfId="164" xr:uid="{6234C681-F97C-48B5-85E6-B0A2123EB68D}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="165" xr:uid="{68490C47-C747-43EB-B374-A2D2D3CA7DBF}"/>
+    <cellStyle name="SAPBEXHLevel3X 2" xfId="166" xr:uid="{061C3D84-DF88-4F72-A003-BE8DFBAFBFFA}"/>
+    <cellStyle name="SAPBEXresData" xfId="167" xr:uid="{A0E9FCA3-4ABB-4969-9F7F-32AD161E68B3}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="168" xr:uid="{8F82C782-A81F-4EFA-8E0F-D8CBAF04E3E8}"/>
+    <cellStyle name="SAPBEXresItem" xfId="169" xr:uid="{CBBA0113-5398-4BC0-9AAE-003D1787259F}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="170" xr:uid="{C1639EB3-C7FE-4C48-8EBC-C3AA726C277B}"/>
+    <cellStyle name="SAPBEXstdData" xfId="171" xr:uid="{A87B0A3D-562A-4FC3-9B3D-7C4BB78FFAB1}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="172" xr:uid="{6F840235-B980-4CDF-A320-398023884307}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="173" xr:uid="{6DC9E9E6-DFA9-4295-9A05-C5268CAA357A}"/>
+    <cellStyle name="SAPBEXstdItem 2" xfId="174" xr:uid="{E9EA037D-CDB6-42C5-A66F-8CEC0A2B1784}"/>
+    <cellStyle name="SAPBEXstdItem 3" xfId="175" xr:uid="{F011F995-35A3-4F8E-A5B4-A6F06684325A}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="176" xr:uid="{9E916D95-535E-4761-98C3-4645BA1AD76E}"/>
+    <cellStyle name="SAPBEXstdItemX 2" xfId="177" xr:uid="{B7CDD154-64C8-4D17-BBAE-08372E053BE5}"/>
+    <cellStyle name="SAPBEXtitle" xfId="178" xr:uid="{4AD138F0-0001-4A15-8F8A-3175ABC94094}"/>
+    <cellStyle name="SAPBEXundefined" xfId="179" xr:uid="{B3E968FE-8659-44EB-A0B8-447129B013C5}"/>
+    <cellStyle name="Sep. milhar [0]" xfId="59" xr:uid="{5DB5043A-DE53-4F16-B1B4-941BCBFF1F4B}"/>
+    <cellStyle name="Separador de milhares 2" xfId="180" xr:uid="{50C3FE22-84D7-41DC-B5F7-1500D783437F}"/>
+    <cellStyle name="Separador de milhares 2 2" xfId="181" xr:uid="{0FAB4567-4F59-495B-A86D-666251C1E1BD}"/>
+    <cellStyle name="Separador de milhares 2 2 2" xfId="182" xr:uid="{2AFF4F67-8262-4287-B58B-02043AF5BBD5}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2" xfId="183" xr:uid="{50369BD3-EC54-4F70-BE8A-2FBC854D01F8}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2" xfId="184" xr:uid="{8236DE00-2966-4AE2-8CBB-A7D9FC972711}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 2 2" xfId="185" xr:uid="{2C934E71-9B9B-4174-9778-B7D1E12690CC}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3" xfId="186" xr:uid="{009EE9CB-FF29-4B1F-8953-1897F68D54F7}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 3 2" xfId="187" xr:uid="{73F02B59-CF5D-4741-BC11-FB3B09C830D6}"/>
+    <cellStyle name="Separador de milhares 2 2 2 2 4" xfId="188" xr:uid="{AECD5AD2-D1D7-4840-85AA-C7B8D2741CBD}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3" xfId="189" xr:uid="{C700E297-3782-47C3-8D5B-20E212E9C831}"/>
+    <cellStyle name="Separador de milhares 2 2 2 3 2" xfId="190" xr:uid="{D150B5C7-0A5D-4342-805F-E7242AA04C87}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4" xfId="191" xr:uid="{355ED416-2885-4673-BB97-08F6273DFAFA}"/>
+    <cellStyle name="Separador de milhares 2 2 2 4 2" xfId="192" xr:uid="{DD58FCF1-AD01-44EC-BB62-DD659BF99E6D}"/>
+    <cellStyle name="Separador de milhares 2 2 2 5" xfId="193" xr:uid="{45D13472-5C0F-4CB7-B867-363DEF92D085}"/>
+    <cellStyle name="Separador de milhares 2 2 3" xfId="194" xr:uid="{34EB1F00-8674-4F58-A9DB-22CA654E1086}"/>
+    <cellStyle name="Separador de milhares 2 2 3 2" xfId="195" xr:uid="{1D28DA09-3C47-4281-89A4-F54D29E05A54}"/>
+    <cellStyle name="Separador de milhares 2 2 4" xfId="196" xr:uid="{6F70E657-B544-460D-9BA5-08211E45B5A8}"/>
+    <cellStyle name="Separador de milhares 2 2 4 2" xfId="197" xr:uid="{1F3F82C1-F6F4-43B9-BD5F-87F2A1AC4E2F}"/>
+    <cellStyle name="Separador de milhares 2 2 5" xfId="198" xr:uid="{41E099D5-9474-4D49-A764-67BF311E54C0}"/>
+    <cellStyle name="Separador de milhares 2 3" xfId="199" xr:uid="{04A791C9-D0A6-4719-80FB-71BBC2D38A3B}"/>
+    <cellStyle name="Separador de milhares 2 3 2" xfId="200" xr:uid="{B2C9E4AB-8E01-4B1C-9B28-73EDBC3235FD}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2" xfId="201" xr:uid="{FB35A1FB-8D4A-43EF-BFBB-3BD177723C84}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2" xfId="202" xr:uid="{96206407-9E4F-408E-B73F-62AB2C5AEF16}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 2 2" xfId="203" xr:uid="{72ACF000-D45B-4E01-98A9-C61E59BFCC30}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3" xfId="204" xr:uid="{5C3B4BCD-F8ED-4499-B53B-06E422BC967F}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 3 2" xfId="205" xr:uid="{3A638A4A-44D2-4EA8-9D78-B886DEF36554}"/>
+    <cellStyle name="Separador de milhares 2 3 2 2 4" xfId="206" xr:uid="{11354869-9B8C-4F27-A2B4-6E26B6053D36}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3" xfId="207" xr:uid="{7E1B062B-1D52-48B7-915C-E85C2C3F87B3}"/>
+    <cellStyle name="Separador de milhares 2 3 2 3 2" xfId="208" xr:uid="{D08ADD1A-13B6-4304-B945-27EB5F337803}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4" xfId="209" xr:uid="{242D6EA7-92BA-41A9-9B78-EFC2CF5955A9}"/>
+    <cellStyle name="Separador de milhares 2 3 2 4 2" xfId="210" xr:uid="{0373CFAC-58B9-4144-8E5D-E4B9EE718C17}"/>
+    <cellStyle name="Separador de milhares 2 3 2 5" xfId="211" xr:uid="{0C8207C8-1B7E-4B43-AA97-780F9324A599}"/>
+    <cellStyle name="Separador de milhares 2 3 3" xfId="212" xr:uid="{6B3571F4-E5EA-4B24-9C56-8ED95D560B47}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2" xfId="213" xr:uid="{52B1015E-0702-4E11-971E-900473C5024F}"/>
+    <cellStyle name="Separador de milhares 2 3 3 2 2" xfId="214" xr:uid="{997B5D32-E065-4006-B77C-3E6B4893A7E0}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3" xfId="215" xr:uid="{CA6B0269-3122-46C4-9008-AA858C9231AA}"/>
+    <cellStyle name="Separador de milhares 2 3 3 3 2" xfId="216" xr:uid="{7B877A38-9CDC-478E-8587-05206CB8F9EB}"/>
+    <cellStyle name="Separador de milhares 2 3 3 4" xfId="217" xr:uid="{53E75F53-B81D-410A-9A94-CA340A6F733C}"/>
+    <cellStyle name="Separador de milhares 2 3 4" xfId="218" xr:uid="{4B8DBC73-CEAA-4467-A48D-BB6AE00D0BAB}"/>
+    <cellStyle name="Separador de milhares 2 3 4 2" xfId="219" xr:uid="{259C84A8-9F5F-4737-8931-46093F3DE2DE}"/>
+    <cellStyle name="Separador de milhares 2 3 5" xfId="220" xr:uid="{8C60B000-DCDC-428F-9C24-7A2CFC75ABBF}"/>
+    <cellStyle name="Separador de milhares 2 3 5 2" xfId="221" xr:uid="{6B571F38-C46D-4107-B797-EA668EFD3AC7}"/>
+    <cellStyle name="Separador de milhares 2 3 6" xfId="222" xr:uid="{B6F24A2C-60D1-422F-ABF6-06F60C69A4BA}"/>
+    <cellStyle name="Separador de milhares 2 4" xfId="223" xr:uid="{47A7091A-B285-41C6-BC83-516887B6CC78}"/>
+    <cellStyle name="Separador de milhares 2 4 2" xfId="224" xr:uid="{1352017A-7CE9-4C04-9814-4A0B182E87A0}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2" xfId="225" xr:uid="{4C493360-7344-47C6-B32D-DF871CF121F1}"/>
+    <cellStyle name="Separador de milhares 2 4 2 2 2" xfId="226" xr:uid="{435D7A9D-2E5C-4789-A566-CDA6CFE75B77}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3" xfId="227" xr:uid="{17D47B46-5FC4-47FA-9151-3867BCA86617}"/>
+    <cellStyle name="Separador de milhares 2 4 2 3 2" xfId="228" xr:uid="{1E35A11F-2975-444C-AB30-CD64314A94A3}"/>
+    <cellStyle name="Separador de milhares 2 4 2 4" xfId="229" xr:uid="{50CD5FE9-D0A9-4B35-B897-D8502F71C5DE}"/>
+    <cellStyle name="Separador de milhares 2 4 3" xfId="230" xr:uid="{922CDDAE-7F9A-4EF8-BD78-D56B892018DF}"/>
+    <cellStyle name="Separador de milhares 2 4 3 2" xfId="231" xr:uid="{582A672B-B5EB-4768-B3A8-EEAD21CD9952}"/>
+    <cellStyle name="Separador de milhares 2 4 4" xfId="232" xr:uid="{34C036C3-B9EC-45B6-A825-FFB2E3D8B43B}"/>
+    <cellStyle name="Separador de milhares 2 4 4 2" xfId="233" xr:uid="{497CD9A8-48C9-4F81-9EC6-86ECDB037638}"/>
+    <cellStyle name="Separador de milhares 2 4 5" xfId="234" xr:uid="{4F87D436-F48B-4668-BC8A-08A864E1D8B6}"/>
+    <cellStyle name="Separador de milhares 2 5" xfId="235" xr:uid="{3E73F9AA-80E4-4E03-824B-2FFF8CA61991}"/>
+    <cellStyle name="Separador de milhares 2 5 2" xfId="236" xr:uid="{268A9985-EE65-47CA-8080-A10D4E81E729}"/>
+    <cellStyle name="Separador de milhares 2 5 2 2" xfId="237" xr:uid="{247F7727-B4D1-431E-9344-4546794474C5}"/>
+    <cellStyle name="Separador de milhares 2 5 3" xfId="238" xr:uid="{68D87753-39BA-49BC-BE5C-EF8A0AA4CE42}"/>
+    <cellStyle name="Separador de milhares 2 5 3 2" xfId="239" xr:uid="{72397894-7FDB-4706-A697-68E74869B0A5}"/>
+    <cellStyle name="Separador de milhares 2 5 4" xfId="240" xr:uid="{0D3FC0DC-D54E-4BB9-B3A3-70B76E1FF060}"/>
+    <cellStyle name="Separador de milhares 3" xfId="241" xr:uid="{F80B8D8A-A541-47B4-9244-8D6A06AD51F9}"/>
+    <cellStyle name="Separador de milhares 3 2" xfId="242" xr:uid="{58F646B6-ED4F-495C-93F7-576EDA19D94A}"/>
+    <cellStyle name="Separador de milhares 3 2 2" xfId="243" xr:uid="{D3A60EFD-13EE-49A8-8B7D-7374366B9516}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2" xfId="244" xr:uid="{08507312-9A56-47B2-839D-E013220F17CD}"/>
+    <cellStyle name="Separador de milhares 3 2 2 2 2" xfId="245" xr:uid="{5D1EB8EA-3DEB-40DF-9C1A-9F1E9E94FCE3}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3" xfId="246" xr:uid="{6B55ED0A-A86F-4220-9775-46FF2956DA47}"/>
+    <cellStyle name="Separador de milhares 3 2 2 3 2" xfId="247" xr:uid="{1714B0BB-4887-4E11-BACA-9A0FEB288A40}"/>
+    <cellStyle name="Separador de milhares 3 2 2 4" xfId="248" xr:uid="{0393A232-3FD2-498E-84B8-F0AE5CFEEE3F}"/>
+    <cellStyle name="Separador de milhares 3 2 3" xfId="249" xr:uid="{28C79BE3-AB1A-4E2E-8C63-0252AACD1F2C}"/>
+    <cellStyle name="Separador de milhares 3 2 3 2" xfId="250" xr:uid="{5172061D-253C-4B38-BF56-7872FB7EEAB1}"/>
+    <cellStyle name="Separador de milhares 3 2 4" xfId="251" xr:uid="{5A1EA4AA-9A0A-4525-A74F-77A6879011C8}"/>
+    <cellStyle name="Separador de milhares 3 2 4 2" xfId="252" xr:uid="{C668D646-BC9E-4323-BC2B-45EC0713F7BF}"/>
+    <cellStyle name="Separador de milhares 3 2 5" xfId="253" xr:uid="{DABC8DCB-3421-4C32-864D-5E776A9E8A3D}"/>
+    <cellStyle name="Separador de milhares 3 3" xfId="254" xr:uid="{F8B49488-D762-4E83-A952-D1F6A3AE16C7}"/>
+    <cellStyle name="Separador de milhares 3 3 2" xfId="255" xr:uid="{64CD732A-97E9-4712-977E-AB9C9072EE47}"/>
+    <cellStyle name="Separador de milhares 3 4" xfId="256" xr:uid="{E6CEB573-64A8-4A6D-90AD-2E0EE4BA2557}"/>
+    <cellStyle name="Separador de milhares 3 4 2" xfId="257" xr:uid="{DF05D584-7ED3-491E-83D6-818EA6934B3D}"/>
+    <cellStyle name="Separador de milhares 3 5" xfId="258" xr:uid="{0790D9E3-4403-4B59-9F93-BDE631B92A59}"/>
+    <cellStyle name="Separador de milhares 4" xfId="259" xr:uid="{FDE4DB83-9E11-4457-AF2A-A10BD3760D9E}"/>
+    <cellStyle name="Separador de milhares 4 2" xfId="260" xr:uid="{1164794A-95E8-48A7-8B56-0410076ED4D8}"/>
+    <cellStyle name="Separador de milhares 4 2 2" xfId="261" xr:uid="{4FD21ECE-3040-4398-9BAC-217076979EA7}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2" xfId="262" xr:uid="{38BFE017-E240-4A71-A34D-DAEA4D58B87C}"/>
+    <cellStyle name="Separador de milhares 4 2 2 2 2" xfId="263" xr:uid="{E4A5EEE7-8D01-4E1E-8305-15C4D04F410A}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3" xfId="264" xr:uid="{B72DEBCA-74A7-4CDD-BE68-D876E4BC57D4}"/>
+    <cellStyle name="Separador de milhares 4 2 2 3 2" xfId="265" xr:uid="{0414C86A-8056-4F1E-B4DA-8F1B61AF07E7}"/>
+    <cellStyle name="Separador de milhares 4 2 2 4" xfId="266" xr:uid="{0DF3324E-42E3-461D-98FA-36A360C19F32}"/>
+    <cellStyle name="Separador de milhares 4 2 3" xfId="267" xr:uid="{6385A2F9-DFCB-40F7-81CC-CE3CD9D331D9}"/>
+    <cellStyle name="Separador de milhares 4 2 3 2" xfId="268" xr:uid="{CD74AACE-8785-44C9-85DC-F09753012D01}"/>
+    <cellStyle name="Separador de milhares 4 2 4" xfId="269" xr:uid="{091D95F1-09CF-4AF3-B5C8-1D50DD124B18}"/>
+    <cellStyle name="Separador de milhares 4 2 4 2" xfId="270" xr:uid="{7200066E-EFEC-4B46-B4EA-F2D3B182E900}"/>
+    <cellStyle name="Separador de milhares 4 2 5" xfId="271" xr:uid="{082363B3-AF4C-4B01-A234-33F30185C5E6}"/>
+    <cellStyle name="Separador de milhares 4 3" xfId="272" xr:uid="{81F0E576-02E6-4716-90AA-2DEA7484DE12}"/>
+    <cellStyle name="Separador de milhares 4 3 2" xfId="273" xr:uid="{0928A428-F626-481F-9F25-F4004B66414B}"/>
+    <cellStyle name="Separador de milhares 4 3 2 2" xfId="274" xr:uid="{E0B9BAF3-1887-4413-A0ED-EC4277964D5E}"/>
+    <cellStyle name="Separador de milhares 4 3 3" xfId="275" xr:uid="{FF10F3B3-E7F3-4BFD-9BDC-21B7CBE579FC}"/>
+    <cellStyle name="Separador de milhares 4 3 3 2" xfId="276" xr:uid="{CA64A849-C5DC-48A1-AD65-275BE9C93117}"/>
+    <cellStyle name="Separador de milhares 4 3 4" xfId="277" xr:uid="{65B527CF-E729-4252-AA33-444736A0D1CD}"/>
+    <cellStyle name="Separador de milhares 4 4" xfId="278" xr:uid="{B454ADE7-9437-4F0E-9018-A469E63A372E}"/>
+    <cellStyle name="Separador de milhares 4 4 2" xfId="279" xr:uid="{EAB637BA-38E1-4590-9DED-C7E791F6C54B}"/>
+    <cellStyle name="Separador de milhares 4 5" xfId="280" xr:uid="{29658F82-F8AF-4EAE-BC27-6F89C769B3BC}"/>
+    <cellStyle name="Separador de milhares 4 5 2" xfId="281" xr:uid="{1B481929-029C-44EB-A222-1B13857D368A}"/>
+    <cellStyle name="Separador de milhares 4 6" xfId="282" xr:uid="{FEC6C403-D7D4-4D8B-8F28-F02F18E448DD}"/>
+    <cellStyle name="Separador de milhares 6" xfId="60" xr:uid="{AEAA5E37-B0B2-41CC-A6B5-5F41A0B95FF2}"/>
+    <cellStyle name="Separador de milhares?M02 (2)_S04_3  Geração GANUN" xfId="61" xr:uid="{B2310E36-2A4F-4970-9C0B-62260853716E}"/>
+    <cellStyle name="Separador de milhares㯟M02 (2)_S04_3  Geração GANUN" xfId="62" xr:uid="{A73D82D4-E8CD-41F3-8C00-EA59560B1AC0}"/>
+    <cellStyle name="Standard_NEGS" xfId="63" xr:uid="{D267B8EA-20D5-495E-B6D7-86DA562A5CA3}"/>
+    <cellStyle name="Style 1" xfId="64" xr:uid="{45C9CD7C-5781-422D-AFC4-2D97EA5FB4AB}"/>
+    <cellStyle name="subhead" xfId="65" xr:uid="{6DA41B2F-46DA-4A5D-B8AD-D7E6B04191B5}"/>
+    <cellStyle name="þ_x0011_ÌÇ$eý—&amp;Hýx_x0001_îÔÇ_x000b__x000f__x0001__x0001_" xfId="66" xr:uid="{23AE7516-2329-466A-BE4F-34AD6906B4DB}"/>
+    <cellStyle name="Vírgula 14" xfId="4" xr:uid="{DA27FEBB-6EAB-4F37-9BC2-F3FDA7C9C262}"/>
+    <cellStyle name="Vírgula 14 2" xfId="7" xr:uid="{CC8566D2-7635-4E1C-A6A3-4C1A874239E5}"/>
+    <cellStyle name="Vírgula 2" xfId="67" xr:uid="{23D245E7-0B78-4AEF-93EC-FE1311727707}"/>
+    <cellStyle name="Vírgula 2 2" xfId="68" xr:uid="{8F861DA6-502E-4771-B870-99620B488B59}"/>
+    <cellStyle name="Vírgula 2 2 2" xfId="285" xr:uid="{C1091F70-237E-4BE9-B29F-9DB31507C086}"/>
+    <cellStyle name="Vírgula 2 2 2 2" xfId="286" xr:uid="{D7763CF4-7B2D-47F0-91B5-1F3CB0894598}"/>
+    <cellStyle name="Vírgula 2 2 3" xfId="287" xr:uid="{CB1AE11E-695A-4C6A-BA7F-6952D6C27E2E}"/>
+    <cellStyle name="Vírgula 2 2 3 2" xfId="288" xr:uid="{43F86CAB-27EB-4966-97C3-F91099BFABD3}"/>
+    <cellStyle name="Vírgula 2 2 4" xfId="289" xr:uid="{CF8CB7C9-A735-40BB-8B95-3BA6E5551154}"/>
+    <cellStyle name="Vírgula 2 2 5" xfId="284" xr:uid="{7A33DA5B-576A-43FF-9F0D-2C810C295124}"/>
+    <cellStyle name="Vírgula 2 3" xfId="79" xr:uid="{87728C7C-243B-42C6-971F-6DB56341CB9C}"/>
+    <cellStyle name="Vírgula 2 3 2" xfId="291" xr:uid="{8E335244-CF2E-43AD-A951-151D089A5AF9}"/>
+    <cellStyle name="Vírgula 2 3 3" xfId="290" xr:uid="{A82E86B0-D684-46EC-AD2D-609732B6E092}"/>
+    <cellStyle name="Vírgula 2 4" xfId="292" xr:uid="{2B2E7579-DECE-4F4E-8BA3-5F0ECE644EB7}"/>
+    <cellStyle name="Vírgula 2 4 2" xfId="293" xr:uid="{B9218103-088C-44E2-88E9-00A24DA633C3}"/>
+    <cellStyle name="Vírgula 2 5" xfId="294" xr:uid="{852A9B1D-B512-4C0E-91CD-326AEB0BC861}"/>
+    <cellStyle name="Vírgula 2 6" xfId="295" xr:uid="{718BAEE3-B928-4BFF-8088-2AD937CDC25A}"/>
+    <cellStyle name="Vírgula 2 7" xfId="283" xr:uid="{890EF34C-80B0-47BF-907E-9147FF069874}"/>
+    <cellStyle name="Vírgula 3" xfId="69" xr:uid="{94CB4E60-5D56-4537-A0AF-DC9FB92B8EED}"/>
+    <cellStyle name="Vírgula 3 2" xfId="297" xr:uid="{8FC634AC-67E9-46C1-BEC7-9F97AADB2B80}"/>
+    <cellStyle name="Vírgula 3 2 2" xfId="298" xr:uid="{A2F24D14-A900-40BE-9E01-B27EA226ED4D}"/>
+    <cellStyle name="Vírgula 3 2 2 2" xfId="299" xr:uid="{E0162700-9020-4A5B-AC73-C6A6781A32C0}"/>
+    <cellStyle name="Vírgula 3 2 3" xfId="300" xr:uid="{5ED44724-2182-455E-91E2-C849E7E4B577}"/>
+    <cellStyle name="Vírgula 3 2 3 2" xfId="301" xr:uid="{050D52A5-4BF0-4790-B1F3-029B12EFCA74}"/>
+    <cellStyle name="Vírgula 3 2 4" xfId="302" xr:uid="{3BE1B559-E29E-4114-9E48-18D69B2C59CF}"/>
+    <cellStyle name="Vírgula 3 3" xfId="303" xr:uid="{E4CBD43A-C99F-4369-B5A8-FAF551EC0DA7}"/>
+    <cellStyle name="Vírgula 3 3 2" xfId="304" xr:uid="{D317045E-1C02-401D-A8E0-E77B00560E8F}"/>
+    <cellStyle name="Vírgula 3 4" xfId="305" xr:uid="{5663DFC8-E046-455A-93D8-C01D6E8C70FD}"/>
+    <cellStyle name="Vírgula 3 4 2" xfId="306" xr:uid="{C0ED88CE-DAAC-44C0-992F-4B3632A786A3}"/>
+    <cellStyle name="Vírgula 3 5" xfId="307" xr:uid="{B23D0CA7-0483-4D0C-BB05-F744CF2E20E7}"/>
+    <cellStyle name="Vírgula 3 6" xfId="296" xr:uid="{9F2B1D8A-10D9-4E82-9824-5A9574B60F54}"/>
+    <cellStyle name="Vírgula 4" xfId="70" xr:uid="{276FF8AD-C58A-4ABF-B8CD-071B7FBF8BC4}"/>
+    <cellStyle name="Vírgula 4 2" xfId="309" xr:uid="{A452D5D0-2026-4CE6-8D90-8499B9924FEA}"/>
+    <cellStyle name="Vírgula 4 2 2" xfId="310" xr:uid="{4CB631F8-8D48-4EAE-B732-09D2987D16F3}"/>
+    <cellStyle name="Vírgula 4 3" xfId="311" xr:uid="{DF5B31A1-9441-48AE-9EC1-6B40C6DBD4E8}"/>
+    <cellStyle name="Vírgula 4 3 2" xfId="312" xr:uid="{CDC4674C-0E1D-4F73-9AE3-E095AF40764E}"/>
+    <cellStyle name="Vírgula 4 4" xfId="313" xr:uid="{F95AA1AF-CA10-4D5F-96B3-2432489D5141}"/>
+    <cellStyle name="Vírgula 4 5" xfId="308" xr:uid="{055D7BE8-75F0-4875-9719-15392959B55A}"/>
+    <cellStyle name="Vírgula 5" xfId="314" xr:uid="{735FAF6D-BC3C-4B4F-B930-16DCA50FEF05}"/>
+    <cellStyle name="Vírgula 5 2" xfId="315" xr:uid="{0ED19C1D-5102-4A9C-9232-BC1C4BEA0736}"/>
+    <cellStyle name="Vírgula 6" xfId="316" xr:uid="{DB93DA80-80BA-4D9A-A85B-99705B247938}"/>
+    <cellStyle name="Vírgula 7" xfId="317" xr:uid="{E64571BD-8473-4143-AC12-9D9B7EE92A14}"/>
+    <cellStyle name="Vírgula 8" xfId="319" xr:uid="{55B95EFB-F366-42A4-816D-436FCCE3798D}"/>
+    <cellStyle name="Währung [0]_Tabelle1" xfId="71" xr:uid="{8B2BE17C-5F02-40CE-942D-334B8CE96A2D}"/>
+    <cellStyle name="Währung_Tabelle1" xfId="72" xr:uid="{1199CBFB-A2E9-4971-8DC1-278A1ACBF67B}"/>
+    <cellStyle name="쉼표_DTCF7" xfId="73" xr:uid="{620FEB01-92BA-4615-8CF8-21B9786E6E64}"/>
+    <cellStyle name="콤마 [0]_97MBO" xfId="74" xr:uid="{CE34F3F1-D778-4C3B-B164-FD1337E830A7}"/>
+    <cellStyle name="콤마_97MBO" xfId="75" xr:uid="{4F81B048-8AF0-4449-8889-1791A3C0ACFE}"/>
+    <cellStyle name="常规_蒲圻卷册计划及人员安排200309" xfId="76" xr:uid="{424F6BE7-CE81-4420-A81B-6E205DB0130B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACCF86A-9CC4-4469-B7F2-23C54316809C}">
-  <dimension ref="A1:S809"/>
+  <dimension ref="A1:S808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
@@ -495,7 +1659,7 @@
     <col min="20" max="20" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -554,9 +1718,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B2" s="3">
         <v>3.0280999999999998</v>
@@ -597,55 +1761,111 @@
         <v>2.9456000000000002</v>
       </c>
       <c r="R2" s="3">
-        <v>2.9471424078443467</v>
+        <v>2.9102602105455486</v>
       </c>
       <c r="S2" s="3">
         <v>3.0117267346938776</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
+        <v>45011</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>3.0441938775510202</v>
+      </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="P3" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.9102602105455486</v>
+      </c>
+      <c r="S3" s="3">
+        <v>3.0117267346938776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>45012</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>3.0441938775510202</v>
+      </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P4" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2.9618000000000002</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3.0036999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -666,7 +1886,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -687,7 +1907,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -708,7 +1928,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -729,7 +1949,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -750,7 +1970,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -771,7 +1991,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -792,7 +2012,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -813,7 +2033,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -834,7 +2054,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -855,7 +2075,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -876,7 +2096,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -897,7 +2117,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -918,7 +2138,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -939,7 +2159,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -960,7 +2180,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -981,7 +2201,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1002,7 +2222,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1023,7 +2243,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1044,7 +2264,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1065,7 +2285,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1086,7 +2306,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1107,7 +2327,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1128,7 +2348,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1149,7 +2369,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1170,7 +2390,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1191,7 +2411,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1212,7 +2432,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1233,7 +2453,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1254,7 +2474,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1275,7 +2495,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1296,7 +2516,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1317,7 +2537,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1338,7 +2558,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1359,7 +2579,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1380,7 +2600,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1401,7 +2621,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1422,7 +2642,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1443,7 +2663,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1464,7 +2684,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1485,7 +2705,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1506,7 +2726,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1527,7 +2747,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1548,7 +2768,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1569,7 +2789,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1590,7 +2810,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1611,7 +2831,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1632,7 +2852,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1653,7 +2873,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1674,7 +2894,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1695,7 +2915,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1716,7 +2936,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1737,7 +2957,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1758,7 +2978,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1779,7 +2999,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1800,7 +3020,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1821,7 +3041,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1842,7 +3062,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1863,7 +3083,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1884,7 +3104,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1905,7 +3125,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1926,7 +3146,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1947,7 +3167,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1968,7 +3188,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1989,7 +3209,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2010,7 +3230,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2031,7 +3251,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2052,7 +3272,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2073,7 +3293,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2094,7 +3314,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2115,7 +3335,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2136,7 +3356,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2157,7 +3377,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2178,7 +3398,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2199,7 +3419,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2220,7 +3440,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2241,7 +3461,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2262,7 +3482,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2283,7 +3503,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2304,7 +3524,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2325,7 +3545,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2346,7 +3566,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2367,7 +3587,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2388,7 +3608,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2409,7 +3629,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2430,7 +3650,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2451,7 +3671,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2472,7 +3692,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2493,7 +3713,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2514,7 +3734,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2535,7 +3755,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2556,7 +3776,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2577,7 +3797,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2598,7 +3818,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2619,7 +3839,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2640,7 +3860,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2661,7 +3881,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2682,7 +3902,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2703,7 +3923,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2724,7 +3944,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2745,7 +3965,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2766,7 +3986,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2787,7 +4007,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2808,7 +4028,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2829,7 +4049,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2850,7 +4070,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2871,7 +4091,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2892,7 +4112,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2913,7 +4133,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2934,7 +4154,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2955,7 +4175,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2976,7 +4196,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2997,7 +4217,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3018,7 +4238,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3039,7 +4259,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3060,7 +4280,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3081,7 +4301,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3102,7 +4322,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3123,7 +4343,7 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3144,7 +4364,7 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3165,7 +4385,7 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3186,7 +4406,7 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3207,7 +4427,7 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3228,7 +4448,7 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3249,7 +4469,7 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3270,7 +4490,7 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3291,7 +4511,7 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3312,7 +4532,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3333,7 +4553,7 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3354,7 +4574,7 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3375,7 +4595,7 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3396,7 +4616,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3417,7 +4637,7 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3438,7 +4658,7 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3459,7 +4679,7 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3480,7 +4700,7 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3501,7 +4721,7 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3522,7 +4742,7 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3543,7 +4763,7 @@
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3564,7 +4784,7 @@
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3585,7 +4805,7 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3606,7 +4826,7 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3627,7 +4847,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3648,7 +4868,7 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3669,7 +4889,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3690,7 +4910,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3711,7 +4931,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3732,7 +4952,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3753,7 +4973,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3774,7 +4994,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3795,7 +5015,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19">
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3816,7 +5036,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19">
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3837,7 +5057,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3858,7 +5078,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19">
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3879,7 +5099,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19">
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3900,7 +5120,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19">
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3921,7 +5141,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3942,7 +5162,7 @@
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19">
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3963,7 +5183,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19">
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3984,7 +5204,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19">
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4005,7 +5225,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4026,7 +5246,7 @@
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19">
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4047,7 +5267,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19">
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4068,7 +5288,7 @@
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19">
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4089,7 +5309,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4110,7 +5330,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19">
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4131,7 +5351,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19">
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4152,7 +5372,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19">
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4173,7 +5393,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19">
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4194,7 +5414,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19">
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4215,7 +5435,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4236,7 +5456,7 @@
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19">
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4257,7 +5477,7 @@
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19">
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4278,7 +5498,7 @@
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19">
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4299,7 +5519,7 @@
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4320,7 +5540,7 @@
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19">
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4341,7 +5561,7 @@
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4362,7 +5582,7 @@
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4383,7 +5603,7 @@
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19">
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4404,7 +5624,7 @@
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4425,7 +5645,7 @@
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19">
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4446,7 +5666,7 @@
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19">
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4467,7 +5687,7 @@
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19">
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4488,7 +5708,7 @@
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19">
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4509,7 +5729,7 @@
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19">
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4530,7 +5750,7 @@
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4551,7 +5771,7 @@
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19">
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4572,7 +5792,7 @@
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19">
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4593,7 +5813,7 @@
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19">
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4614,7 +5834,7 @@
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19">
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4635,7 +5855,7 @@
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19">
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4656,7 +5876,7 @@
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19">
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4677,7 +5897,7 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19">
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4698,7 +5918,7 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19">
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4719,7 +5939,7 @@
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19">
       <c r="A199" s="1"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4740,7 +5960,7 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19">
       <c r="A200" s="1"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4761,7 +5981,7 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19">
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4782,7 +6002,7 @@
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19">
       <c r="A202" s="1"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4803,7 +6023,7 @@
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19">
       <c r="A203" s="1"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4824,7 +6044,7 @@
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19">
       <c r="A204" s="1"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4845,7 +6065,7 @@
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19">
       <c r="A205" s="1"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4866,7 +6086,7 @@
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19">
       <c r="A206" s="1"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4887,7 +6107,7 @@
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19">
       <c r="A207" s="1"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4908,7 +6128,7 @@
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19">
       <c r="A208" s="1"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4929,7 +6149,7 @@
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19">
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4950,7 +6170,7 @@
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19">
       <c r="A210" s="1"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4971,7 +6191,7 @@
       <c r="R210" s="3"/>
       <c r="S210" s="3"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19">
       <c r="A211" s="1"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4992,7 +6212,7 @@
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19">
       <c r="A212" s="1"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -5013,7 +6233,7 @@
       <c r="R212" s="3"/>
       <c r="S212" s="3"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19">
       <c r="A213" s="1"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -5034,7 +6254,7 @@
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19">
       <c r="A214" s="1"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -5055,7 +6275,7 @@
       <c r="R214" s="3"/>
       <c r="S214" s="3"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19">
       <c r="A215" s="1"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -5076,7 +6296,7 @@
       <c r="R215" s="3"/>
       <c r="S215" s="3"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19">
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -5097,7 +6317,7 @@
       <c r="R216" s="3"/>
       <c r="S216" s="3"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19">
       <c r="A217" s="1"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -5118,7 +6338,7 @@
       <c r="R217" s="3"/>
       <c r="S217" s="3"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19">
       <c r="A218" s="1"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -5139,7 +6359,7 @@
       <c r="R218" s="3"/>
       <c r="S218" s="3"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19">
       <c r="A219" s="1"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -5160,7 +6380,7 @@
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19">
       <c r="A220" s="1"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -5181,7 +6401,7 @@
       <c r="R220" s="3"/>
       <c r="S220" s="3"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19">
       <c r="A221" s="1"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -5202,7 +6422,7 @@
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19">
       <c r="A222" s="1"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -5223,7 +6443,7 @@
       <c r="R222" s="3"/>
       <c r="S222" s="3"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19">
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -5244,7 +6464,7 @@
       <c r="R223" s="3"/>
       <c r="S223" s="3"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19">
       <c r="A224" s="1"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5265,7 +6485,7 @@
       <c r="R224" s="3"/>
       <c r="S224" s="3"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19">
       <c r="A225" s="1"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -5286,7 +6506,7 @@
       <c r="R225" s="3"/>
       <c r="S225" s="3"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19">
       <c r="A226" s="1"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -5307,7 +6527,7 @@
       <c r="R226" s="3"/>
       <c r="S226" s="3"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19">
       <c r="A227" s="1"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -5328,7 +6548,7 @@
       <c r="R227" s="3"/>
       <c r="S227" s="3"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19">
       <c r="A228" s="1"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -5349,7 +6569,7 @@
       <c r="R228" s="3"/>
       <c r="S228" s="3"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19">
       <c r="A229" s="1"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -5370,7 +6590,7 @@
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19">
       <c r="A230" s="1"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -5391,7 +6611,7 @@
       <c r="R230" s="3"/>
       <c r="S230" s="3"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19">
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -5412,7 +6632,7 @@
       <c r="R231" s="3"/>
       <c r="S231" s="3"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19">
       <c r="A232" s="1"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -5433,7 +6653,7 @@
       <c r="R232" s="3"/>
       <c r="S232" s="3"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19">
       <c r="A233" s="1"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -5454,7 +6674,7 @@
       <c r="R233" s="3"/>
       <c r="S233" s="3"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19">
       <c r="A234" s="1"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -5475,7 +6695,7 @@
       <c r="R234" s="3"/>
       <c r="S234" s="3"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19">
       <c r="A235" s="1"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -5496,7 +6716,7 @@
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19">
       <c r="A236" s="1"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -5517,7 +6737,7 @@
       <c r="R236" s="3"/>
       <c r="S236" s="3"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19">
       <c r="A237" s="1"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -5538,7 +6758,7 @@
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19">
       <c r="A238" s="1"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5559,7 +6779,7 @@
       <c r="R238" s="3"/>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19">
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5580,7 +6800,7 @@
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19">
       <c r="A240" s="1"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5601,7 +6821,7 @@
       <c r="R240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19">
       <c r="A241" s="1"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5622,7 +6842,7 @@
       <c r="R241" s="3"/>
       <c r="S241" s="3"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19">
       <c r="A242" s="1"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5643,7 +6863,7 @@
       <c r="R242" s="3"/>
       <c r="S242" s="3"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19">
       <c r="A243" s="1"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5664,7 +6884,7 @@
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19">
       <c r="A244" s="1"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5685,7 +6905,7 @@
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19">
       <c r="A245" s="1"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5706,7 +6926,7 @@
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5727,7 +6947,7 @@
       <c r="R246" s="3"/>
       <c r="S246" s="3"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19">
       <c r="A247" s="1"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5748,7 +6968,7 @@
       <c r="R247" s="3"/>
       <c r="S247" s="3"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19">
       <c r="A248" s="1"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5769,7 +6989,7 @@
       <c r="R248" s="3"/>
       <c r="S248" s="3"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19">
       <c r="A249" s="1"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5790,7 +7010,7 @@
       <c r="R249" s="3"/>
       <c r="S249" s="3"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19">
       <c r="A250" s="1"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5811,7 +7031,7 @@
       <c r="R250" s="3"/>
       <c r="S250" s="3"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19">
       <c r="A251" s="1"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5832,7 +7052,7 @@
       <c r="R251" s="3"/>
       <c r="S251" s="3"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19">
       <c r="A252" s="1"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5853,7 +7073,7 @@
       <c r="R252" s="3"/>
       <c r="S252" s="3"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19">
       <c r="A253" s="1"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -5874,7 +7094,7 @@
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19">
       <c r="A254" s="1"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5895,7 +7115,7 @@
       <c r="R254" s="3"/>
       <c r="S254" s="3"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19">
       <c r="A255" s="1"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5916,7 +7136,7 @@
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19">
       <c r="A256" s="1"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5937,7 +7157,7 @@
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19">
       <c r="A257" s="1"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5958,7 +7178,7 @@
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19">
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5979,7 +7199,7 @@
       <c r="R258" s="3"/>
       <c r="S258" s="3"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19">
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -6000,7 +7220,7 @@
       <c r="R259" s="3"/>
       <c r="S259" s="3"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19">
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -6021,7 +7241,7 @@
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19">
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -6042,7 +7262,7 @@
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19">
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -6063,7 +7283,7 @@
       <c r="R262" s="3"/>
       <c r="S262" s="3"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19">
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -6084,7 +7304,7 @@
       <c r="R263" s="3"/>
       <c r="S263" s="3"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19">
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -6105,7 +7325,7 @@
       <c r="R264" s="3"/>
       <c r="S264" s="3"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19">
       <c r="A265" s="1"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -6126,7 +7346,7 @@
       <c r="R265" s="3"/>
       <c r="S265" s="3"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19">
       <c r="A266" s="1"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -6147,7 +7367,7 @@
       <c r="R266" s="3"/>
       <c r="S266" s="3"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19">
       <c r="A267" s="1"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -6168,7 +7388,7 @@
       <c r="R267" s="3"/>
       <c r="S267" s="3"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19">
       <c r="A268" s="1"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -6189,7 +7409,7 @@
       <c r="R268" s="3"/>
       <c r="S268" s="3"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19">
       <c r="A269" s="1"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -6210,7 +7430,7 @@
       <c r="R269" s="3"/>
       <c r="S269" s="3"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19">
       <c r="A270" s="1"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -6231,7 +7451,7 @@
       <c r="R270" s="3"/>
       <c r="S270" s="3"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19">
       <c r="A271" s="1"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -6252,7 +7472,7 @@
       <c r="R271" s="3"/>
       <c r="S271" s="3"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19">
       <c r="A272" s="1"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -6273,7 +7493,7 @@
       <c r="R272" s="3"/>
       <c r="S272" s="3"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19">
       <c r="A273" s="1"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -6294,7 +7514,7 @@
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19">
       <c r="A274" s="1"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -6315,7 +7535,7 @@
       <c r="R274" s="3"/>
       <c r="S274" s="3"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19">
       <c r="A275" s="1"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -6336,7 +7556,7 @@
       <c r="R275" s="3"/>
       <c r="S275" s="3"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19">
       <c r="A276" s="1"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -6357,7 +7577,7 @@
       <c r="R276" s="3"/>
       <c r="S276" s="3"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19">
       <c r="A277" s="1"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -6378,7 +7598,7 @@
       <c r="R277" s="3"/>
       <c r="S277" s="3"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19">
       <c r="A278" s="1"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -6399,7 +7619,7 @@
       <c r="R278" s="3"/>
       <c r="S278" s="3"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19">
       <c r="A279" s="1"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -6420,7 +7640,7 @@
       <c r="R279" s="3"/>
       <c r="S279" s="3"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19">
       <c r="A280" s="1"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -6441,7 +7661,7 @@
       <c r="R280" s="3"/>
       <c r="S280" s="3"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19">
       <c r="A281" s="1"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -6462,7 +7682,7 @@
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19">
       <c r="A282" s="1"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -6483,7 +7703,7 @@
       <c r="R282" s="3"/>
       <c r="S282" s="3"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19">
       <c r="A283" s="1"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -6504,7 +7724,7 @@
       <c r="R283" s="3"/>
       <c r="S283" s="3"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19">
       <c r="A284" s="1"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -6525,7 +7745,7 @@
       <c r="R284" s="3"/>
       <c r="S284" s="3"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19">
       <c r="A285" s="1"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -6546,7 +7766,7 @@
       <c r="R285" s="3"/>
       <c r="S285" s="3"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19">
       <c r="A286" s="1"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -6567,7 +7787,7 @@
       <c r="R286" s="3"/>
       <c r="S286" s="3"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19">
       <c r="A287" s="1"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -6588,7 +7808,7 @@
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19">
       <c r="A288" s="1"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -6609,7 +7829,7 @@
       <c r="R288" s="3"/>
       <c r="S288" s="3"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19">
       <c r="A289" s="1"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -6630,7 +7850,7 @@
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19">
       <c r="A290" s="1"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -6651,7 +7871,7 @@
       <c r="R290" s="3"/>
       <c r="S290" s="3"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19">
       <c r="A291" s="1"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -6672,7 +7892,7 @@
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19">
       <c r="A292" s="1"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -6693,7 +7913,7 @@
       <c r="R292" s="3"/>
       <c r="S292" s="3"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19">
       <c r="A293" s="1"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -6714,7 +7934,7 @@
       <c r="R293" s="3"/>
       <c r="S293" s="3"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19">
       <c r="A294" s="1"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -6735,7 +7955,7 @@
       <c r="R294" s="3"/>
       <c r="S294" s="3"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19">
       <c r="A295" s="1"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -6756,7 +7976,7 @@
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19">
       <c r="A296" s="1"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -6777,7 +7997,7 @@
       <c r="R296" s="3"/>
       <c r="S296" s="3"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19">
       <c r="A297" s="1"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -6798,7 +8018,7 @@
       <c r="R297" s="3"/>
       <c r="S297" s="3"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19">
       <c r="A298" s="1"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -6819,7 +8039,7 @@
       <c r="R298" s="3"/>
       <c r="S298" s="3"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19">
       <c r="A299" s="1"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -6840,7 +8060,7 @@
       <c r="R299" s="3"/>
       <c r="S299" s="3"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19">
       <c r="A300" s="1"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -6861,7 +8081,7 @@
       <c r="R300" s="3"/>
       <c r="S300" s="3"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19">
       <c r="A301" s="1"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -6882,7 +8102,7 @@
       <c r="R301" s="3"/>
       <c r="S301" s="3"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19">
       <c r="A302" s="1"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -6903,7 +8123,7 @@
       <c r="R302" s="3"/>
       <c r="S302" s="3"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19">
       <c r="A303" s="1"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -6924,7 +8144,7 @@
       <c r="R303" s="3"/>
       <c r="S303" s="3"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19">
       <c r="A304" s="1"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -6945,7 +8165,7 @@
       <c r="R304" s="3"/>
       <c r="S304" s="3"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19">
       <c r="A305" s="1"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6966,7 +8186,7 @@
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19">
       <c r="A306" s="1"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6987,7 +8207,7 @@
       <c r="R306" s="3"/>
       <c r="S306" s="3"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19">
       <c r="A307" s="1"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -7008,7 +8228,7 @@
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19">
       <c r="A308" s="1"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -7029,7 +8249,7 @@
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19">
       <c r="A309" s="1"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -7050,7 +8270,7 @@
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19">
       <c r="A310" s="1"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -7071,7 +8291,7 @@
       <c r="R310" s="3"/>
       <c r="S310" s="3"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19">
       <c r="A311" s="1"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -7092,7 +8312,7 @@
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19">
       <c r="A312" s="1"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -7113,7 +8333,7 @@
       <c r="R312" s="3"/>
       <c r="S312" s="3"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19">
       <c r="A313" s="1"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -7134,7 +8354,7 @@
       <c r="R313" s="3"/>
       <c r="S313" s="3"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19">
       <c r="A314" s="1"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -7155,7 +8375,7 @@
       <c r="R314" s="3"/>
       <c r="S314" s="3"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19">
       <c r="A315" s="1"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -7176,7 +8396,7 @@
       <c r="R315" s="3"/>
       <c r="S315" s="3"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19">
       <c r="A316" s="1"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -7197,7 +8417,7 @@
       <c r="R316" s="3"/>
       <c r="S316" s="3"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19">
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -7218,7 +8438,7 @@
       <c r="R317" s="3"/>
       <c r="S317" s="3"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19">
       <c r="A318" s="1"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -7239,7 +8459,7 @@
       <c r="R318" s="3"/>
       <c r="S318" s="3"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19">
       <c r="A319" s="1"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -7260,7 +8480,7 @@
       <c r="R319" s="3"/>
       <c r="S319" s="3"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19">
       <c r="A320" s="1"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -7281,7 +8501,7 @@
       <c r="R320" s="3"/>
       <c r="S320" s="3"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19">
       <c r="A321" s="1"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -7302,7 +8522,7 @@
       <c r="R321" s="3"/>
       <c r="S321" s="3"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19">
       <c r="A322" s="1"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -7323,7 +8543,7 @@
       <c r="R322" s="3"/>
       <c r="S322" s="3"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19">
       <c r="A323" s="1"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -7344,7 +8564,7 @@
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19">
       <c r="A324" s="1"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -7365,7 +8585,7 @@
       <c r="R324" s="3"/>
       <c r="S324" s="3"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19">
       <c r="A325" s="1"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -7386,7 +8606,7 @@
       <c r="R325" s="3"/>
       <c r="S325" s="3"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19">
       <c r="A326" s="1"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -7407,7 +8627,7 @@
       <c r="R326" s="3"/>
       <c r="S326" s="3"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19">
       <c r="A327" s="1"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -7428,7 +8648,7 @@
       <c r="R327" s="3"/>
       <c r="S327" s="3"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19">
       <c r="A328" s="1"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -7449,7 +8669,7 @@
       <c r="R328" s="3"/>
       <c r="S328" s="3"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19">
       <c r="A329" s="1"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -7470,7 +8690,7 @@
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19">
       <c r="A330" s="1"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -7491,7 +8711,7 @@
       <c r="R330" s="3"/>
       <c r="S330" s="3"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19">
       <c r="A331" s="1"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -7512,7 +8732,7 @@
       <c r="R331" s="3"/>
       <c r="S331" s="3"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19">
       <c r="A332" s="1"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -7533,7 +8753,7 @@
       <c r="R332" s="3"/>
       <c r="S332" s="3"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19">
       <c r="A333" s="1"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -7554,7 +8774,7 @@
       <c r="R333" s="3"/>
       <c r="S333" s="3"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19">
       <c r="A334" s="1"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -7575,7 +8795,7 @@
       <c r="R334" s="3"/>
       <c r="S334" s="3"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19">
       <c r="A335" s="1"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -7596,7 +8816,7 @@
       <c r="R335" s="3"/>
       <c r="S335" s="3"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19">
       <c r="A336" s="1"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -7617,7 +8837,7 @@
       <c r="R336" s="3"/>
       <c r="S336" s="3"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19">
       <c r="A337" s="1"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -7638,7 +8858,7 @@
       <c r="R337" s="3"/>
       <c r="S337" s="3"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19">
       <c r="A338" s="1"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -7659,7 +8879,7 @@
       <c r="R338" s="3"/>
       <c r="S338" s="3"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19">
       <c r="A339" s="1"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -7680,7 +8900,7 @@
       <c r="R339" s="3"/>
       <c r="S339" s="3"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19">
       <c r="A340" s="1"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -7701,7 +8921,7 @@
       <c r="R340" s="3"/>
       <c r="S340" s="3"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19">
       <c r="A341" s="1"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -7722,7 +8942,7 @@
       <c r="R341" s="3"/>
       <c r="S341" s="3"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19">
       <c r="A342" s="1"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -7743,7 +8963,7 @@
       <c r="R342" s="3"/>
       <c r="S342" s="3"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19">
       <c r="A343" s="1"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -7764,7 +8984,7 @@
       <c r="R343" s="3"/>
       <c r="S343" s="3"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19">
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -7785,7 +9005,7 @@
       <c r="R344" s="3"/>
       <c r="S344" s="3"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19">
       <c r="A345" s="1"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -7806,7 +9026,7 @@
       <c r="R345" s="3"/>
       <c r="S345" s="3"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19">
       <c r="A346" s="1"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -7827,7 +9047,7 @@
       <c r="R346" s="3"/>
       <c r="S346" s="3"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19">
       <c r="A347" s="1"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -7848,7 +9068,7 @@
       <c r="R347" s="3"/>
       <c r="S347" s="3"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19">
       <c r="A348" s="1"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -7869,7 +9089,7 @@
       <c r="R348" s="3"/>
       <c r="S348" s="3"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19">
       <c r="A349" s="1"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -7890,7 +9110,7 @@
       <c r="R349" s="3"/>
       <c r="S349" s="3"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19">
       <c r="A350" s="1"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -7911,7 +9131,7 @@
       <c r="R350" s="3"/>
       <c r="S350" s="3"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19">
       <c r="A351" s="1"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -7932,7 +9152,7 @@
       <c r="R351" s="3"/>
       <c r="S351" s="3"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19">
       <c r="A352" s="1"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -7953,7 +9173,7 @@
       <c r="R352" s="3"/>
       <c r="S352" s="3"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19">
       <c r="A353" s="1"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -7974,7 +9194,7 @@
       <c r="R353" s="3"/>
       <c r="S353" s="3"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19">
       <c r="A354" s="1"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -7995,7 +9215,7 @@
       <c r="R354" s="3"/>
       <c r="S354" s="3"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19">
       <c r="A355" s="1"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -8016,7 +9236,7 @@
       <c r="R355" s="3"/>
       <c r="S355" s="3"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19">
       <c r="A356" s="1"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -8037,7 +9257,7 @@
       <c r="R356" s="3"/>
       <c r="S356" s="3"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19">
       <c r="A357" s="1"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -8058,7 +9278,7 @@
       <c r="R357" s="3"/>
       <c r="S357" s="3"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19">
       <c r="A358" s="1"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -8079,7 +9299,7 @@
       <c r="R358" s="3"/>
       <c r="S358" s="3"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19">
       <c r="A359" s="1"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -8100,7 +9320,7 @@
       <c r="R359" s="3"/>
       <c r="S359" s="3"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19">
       <c r="A360" s="1"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -8121,7 +9341,7 @@
       <c r="R360" s="3"/>
       <c r="S360" s="3"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19">
       <c r="A361" s="1"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -8142,7 +9362,7 @@
       <c r="R361" s="3"/>
       <c r="S361" s="3"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19">
       <c r="A362" s="1"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -8163,7 +9383,7 @@
       <c r="R362" s="3"/>
       <c r="S362" s="3"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19">
       <c r="A363" s="1"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -8184,7 +9404,7 @@
       <c r="R363" s="3"/>
       <c r="S363" s="3"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19">
       <c r="A364" s="1"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -8205,7 +9425,7 @@
       <c r="R364" s="3"/>
       <c r="S364" s="3"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19">
       <c r="A365" s="1"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -8226,7 +9446,7 @@
       <c r="R365" s="3"/>
       <c r="S365" s="3"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19">
       <c r="A366" s="1"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -8247,7 +9467,7 @@
       <c r="R366" s="3"/>
       <c r="S366" s="3"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19">
       <c r="A367" s="1"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -8268,7 +9488,7 @@
       <c r="R367" s="3"/>
       <c r="S367" s="3"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19">
       <c r="A368" s="1"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -8289,7 +9509,7 @@
       <c r="R368" s="3"/>
       <c r="S368" s="3"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19">
       <c r="A369" s="1"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -8310,7 +9530,7 @@
       <c r="R369" s="3"/>
       <c r="S369" s="3"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19">
       <c r="A370" s="1"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -8331,7 +9551,7 @@
       <c r="R370" s="3"/>
       <c r="S370" s="3"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19">
       <c r="A371" s="1"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -8352,7 +9572,7 @@
       <c r="R371" s="3"/>
       <c r="S371" s="3"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19">
       <c r="A372" s="1"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -8373,7 +9593,7 @@
       <c r="R372" s="3"/>
       <c r="S372" s="3"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19">
       <c r="A373" s="1"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -8394,7 +9614,7 @@
       <c r="R373" s="3"/>
       <c r="S373" s="3"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19">
       <c r="A374" s="1"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -8415,7 +9635,7 @@
       <c r="R374" s="3"/>
       <c r="S374" s="3"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19">
       <c r="A375" s="1"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -8436,7 +9656,7 @@
       <c r="R375" s="3"/>
       <c r="S375" s="3"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19">
       <c r="A376" s="1"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -8457,7 +9677,7 @@
       <c r="R376" s="3"/>
       <c r="S376" s="3"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19">
       <c r="A377" s="1"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -8478,7 +9698,7 @@
       <c r="R377" s="3"/>
       <c r="S377" s="3"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19">
       <c r="A378" s="1"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -8499,7 +9719,7 @@
       <c r="R378" s="3"/>
       <c r="S378" s="3"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19">
       <c r="A379" s="1"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -8520,7 +9740,7 @@
       <c r="R379" s="3"/>
       <c r="S379" s="3"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19">
       <c r="A380" s="1"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -8541,7 +9761,7 @@
       <c r="R380" s="3"/>
       <c r="S380" s="3"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19">
       <c r="A381" s="1"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -8562,7 +9782,7 @@
       <c r="R381" s="3"/>
       <c r="S381" s="3"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19">
       <c r="A382" s="1"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -8583,7 +9803,7 @@
       <c r="R382" s="3"/>
       <c r="S382" s="3"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19">
       <c r="A383" s="1"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -8604,7 +9824,7 @@
       <c r="R383" s="3"/>
       <c r="S383" s="3"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19">
       <c r="A384" s="1"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -8625,7 +9845,7 @@
       <c r="R384" s="3"/>
       <c r="S384" s="3"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19">
       <c r="A385" s="1"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -8646,7 +9866,7 @@
       <c r="R385" s="3"/>
       <c r="S385" s="3"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19">
       <c r="A386" s="1"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -8667,7 +9887,7 @@
       <c r="R386" s="3"/>
       <c r="S386" s="3"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19">
       <c r="A387" s="1"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -8688,7 +9908,7 @@
       <c r="R387" s="3"/>
       <c r="S387" s="3"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19">
       <c r="A388" s="1"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -8709,7 +9929,7 @@
       <c r="R388" s="3"/>
       <c r="S388" s="3"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19">
       <c r="A389" s="1"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -8730,7 +9950,7 @@
       <c r="R389" s="3"/>
       <c r="S389" s="3"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19">
       <c r="A390" s="1"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -8751,7 +9971,7 @@
       <c r="R390" s="3"/>
       <c r="S390" s="3"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19">
       <c r="A391" s="1"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -8772,7 +9992,7 @@
       <c r="R391" s="3"/>
       <c r="S391" s="3"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19">
       <c r="A392" s="1"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -8793,7 +10013,7 @@
       <c r="R392" s="3"/>
       <c r="S392" s="3"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19">
       <c r="A393" s="1"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -8814,7 +10034,7 @@
       <c r="R393" s="3"/>
       <c r="S393" s="3"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19">
       <c r="A394" s="1"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -8835,7 +10055,7 @@
       <c r="R394" s="3"/>
       <c r="S394" s="3"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19">
       <c r="A395" s="1"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -8856,7 +10076,7 @@
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19">
       <c r="A396" s="1"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -8877,7 +10097,7 @@
       <c r="R396" s="3"/>
       <c r="S396" s="3"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19">
       <c r="A397" s="1"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -8898,7 +10118,7 @@
       <c r="R397" s="3"/>
       <c r="S397" s="3"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19">
       <c r="A398" s="1"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -8919,7 +10139,7 @@
       <c r="R398" s="3"/>
       <c r="S398" s="3"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19">
       <c r="A399" s="1"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -8940,7 +10160,7 @@
       <c r="R399" s="3"/>
       <c r="S399" s="3"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19">
       <c r="A400" s="1"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -8961,7 +10181,7 @@
       <c r="R400" s="3"/>
       <c r="S400" s="3"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19">
       <c r="A401" s="1"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -8982,7 +10202,7 @@
       <c r="R401" s="3"/>
       <c r="S401" s="3"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19">
       <c r="A402" s="1"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -9003,7 +10223,7 @@
       <c r="R402" s="3"/>
       <c r="S402" s="3"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19">
       <c r="A403" s="1"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -9024,7 +10244,7 @@
       <c r="R403" s="3"/>
       <c r="S403" s="3"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19">
       <c r="A404" s="1"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -9045,7 +10265,7 @@
       <c r="R404" s="3"/>
       <c r="S404" s="3"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19">
       <c r="A405" s="1"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -9066,7 +10286,7 @@
       <c r="R405" s="3"/>
       <c r="S405" s="3"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19">
       <c r="A406" s="1"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -9087,7 +10307,7 @@
       <c r="R406" s="3"/>
       <c r="S406" s="3"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19">
       <c r="A407" s="1"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -9108,7 +10328,7 @@
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19">
       <c r="A408" s="1"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -9129,7 +10349,7 @@
       <c r="R408" s="3"/>
       <c r="S408" s="3"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19">
       <c r="A409" s="1"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -9150,7 +10370,7 @@
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19">
       <c r="A410" s="1"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -9171,7 +10391,7 @@
       <c r="R410" s="3"/>
       <c r="S410" s="3"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19">
       <c r="A411" s="1"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -9192,7 +10412,7 @@
       <c r="R411" s="3"/>
       <c r="S411" s="3"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19">
       <c r="A412" s="1"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -9213,7 +10433,7 @@
       <c r="R412" s="3"/>
       <c r="S412" s="3"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19">
       <c r="A413" s="1"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -9234,7 +10454,7 @@
       <c r="R413" s="3"/>
       <c r="S413" s="3"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19">
       <c r="A414" s="1"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -9255,7 +10475,7 @@
       <c r="R414" s="3"/>
       <c r="S414" s="3"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19">
       <c r="A415" s="1"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -9276,7 +10496,7 @@
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19">
       <c r="A416" s="1"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -9297,7 +10517,7 @@
       <c r="R416" s="3"/>
       <c r="S416" s="3"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19">
       <c r="A417" s="1"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -9318,7 +10538,7 @@
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19">
       <c r="A418" s="1"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -9339,7 +10559,7 @@
       <c r="R418" s="3"/>
       <c r="S418" s="3"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19">
       <c r="A419" s="1"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -9360,7 +10580,7 @@
       <c r="R419" s="3"/>
       <c r="S419" s="3"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19">
       <c r="A420" s="1"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -9381,7 +10601,7 @@
       <c r="R420" s="3"/>
       <c r="S420" s="3"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19">
       <c r="A421" s="1"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -9402,7 +10622,7 @@
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19">
       <c r="A422" s="1"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -9423,7 +10643,7 @@
       <c r="R422" s="3"/>
       <c r="S422" s="3"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19">
       <c r="A423" s="1"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -9444,7 +10664,7 @@
       <c r="R423" s="3"/>
       <c r="S423" s="3"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19">
       <c r="A424" s="1"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -9465,7 +10685,7 @@
       <c r="R424" s="3"/>
       <c r="S424" s="3"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19">
       <c r="A425" s="1"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -9486,7 +10706,7 @@
       <c r="R425" s="3"/>
       <c r="S425" s="3"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19">
       <c r="A426" s="1"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -9507,7 +10727,7 @@
       <c r="R426" s="3"/>
       <c r="S426" s="3"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19">
       <c r="A427" s="1"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -9528,7 +10748,7 @@
       <c r="R427" s="3"/>
       <c r="S427" s="3"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19">
       <c r="A428" s="1"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -9549,7 +10769,7 @@
       <c r="R428" s="3"/>
       <c r="S428" s="3"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19">
       <c r="A429" s="1"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -9570,7 +10790,7 @@
       <c r="R429" s="3"/>
       <c r="S429" s="3"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19">
       <c r="A430" s="1"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -9591,7 +10811,7 @@
       <c r="R430" s="3"/>
       <c r="S430" s="3"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19">
       <c r="A431" s="1"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -9612,7 +10832,7 @@
       <c r="R431" s="3"/>
       <c r="S431" s="3"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19">
       <c r="A432" s="1"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -9633,7 +10853,7 @@
       <c r="R432" s="3"/>
       <c r="S432" s="3"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19">
       <c r="A433" s="1"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -9654,7 +10874,7 @@
       <c r="R433" s="3"/>
       <c r="S433" s="3"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19">
       <c r="A434" s="1"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -9675,7 +10895,7 @@
       <c r="R434" s="3"/>
       <c r="S434" s="3"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19">
       <c r="A435" s="1"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -9696,7 +10916,7 @@
       <c r="R435" s="3"/>
       <c r="S435" s="3"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19">
       <c r="A436" s="1"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -9717,7 +10937,7 @@
       <c r="R436" s="3"/>
       <c r="S436" s="3"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19">
       <c r="A437" s="1"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -9738,7 +10958,7 @@
       <c r="R437" s="3"/>
       <c r="S437" s="3"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19">
       <c r="A438" s="1"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -9759,7 +10979,7 @@
       <c r="R438" s="3"/>
       <c r="S438" s="3"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19">
       <c r="A439" s="1"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -9780,7 +11000,7 @@
       <c r="R439" s="3"/>
       <c r="S439" s="3"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19">
       <c r="A440" s="1"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -9801,7 +11021,7 @@
       <c r="R440" s="3"/>
       <c r="S440" s="3"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19">
       <c r="A441" s="1"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -9822,7 +11042,7 @@
       <c r="R441" s="3"/>
       <c r="S441" s="3"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19">
       <c r="A442" s="1"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -9843,7 +11063,7 @@
       <c r="R442" s="3"/>
       <c r="S442" s="3"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19">
       <c r="A443" s="1"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -9864,7 +11084,7 @@
       <c r="R443" s="3"/>
       <c r="S443" s="3"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19">
       <c r="A444" s="1"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -9885,7 +11105,7 @@
       <c r="R444" s="3"/>
       <c r="S444" s="3"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19">
       <c r="A445" s="1"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -9906,7 +11126,7 @@
       <c r="R445" s="3"/>
       <c r="S445" s="3"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19">
       <c r="A446" s="1"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -9927,7 +11147,7 @@
       <c r="R446" s="3"/>
       <c r="S446" s="3"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19">
       <c r="A447" s="1"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -9948,7 +11168,7 @@
       <c r="R447" s="3"/>
       <c r="S447" s="3"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19">
       <c r="A448" s="1"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -9969,7 +11189,7 @@
       <c r="R448" s="3"/>
       <c r="S448" s="3"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19">
       <c r="A449" s="1"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -9990,7 +11210,7 @@
       <c r="R449" s="3"/>
       <c r="S449" s="3"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19">
       <c r="A450" s="1"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -10011,7 +11231,7 @@
       <c r="R450" s="3"/>
       <c r="S450" s="3"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19">
       <c r="A451" s="1"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -10032,7 +11252,7 @@
       <c r="R451" s="3"/>
       <c r="S451" s="3"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19">
       <c r="A452" s="1"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -10053,7 +11273,7 @@
       <c r="R452" s="3"/>
       <c r="S452" s="3"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19">
       <c r="A453" s="1"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -10074,7 +11294,7 @@
       <c r="R453" s="3"/>
       <c r="S453" s="3"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19">
       <c r="A454" s="1"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -10095,7 +11315,7 @@
       <c r="R454" s="3"/>
       <c r="S454" s="3"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19">
       <c r="A455" s="1"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -10116,7 +11336,7 @@
       <c r="R455" s="3"/>
       <c r="S455" s="3"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19">
       <c r="A456" s="1"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -10137,7 +11357,7 @@
       <c r="R456" s="3"/>
       <c r="S456" s="3"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19">
       <c r="A457" s="1"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -10158,7 +11378,7 @@
       <c r="R457" s="3"/>
       <c r="S457" s="3"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19">
       <c r="A458" s="1"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -10179,7 +11399,7 @@
       <c r="R458" s="3"/>
       <c r="S458" s="3"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19">
       <c r="A459" s="1"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -10200,7 +11420,7 @@
       <c r="R459" s="3"/>
       <c r="S459" s="3"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19">
       <c r="A460" s="1"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -10221,7 +11441,7 @@
       <c r="R460" s="3"/>
       <c r="S460" s="3"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19">
       <c r="A461" s="1"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -10242,7 +11462,7 @@
       <c r="R461" s="3"/>
       <c r="S461" s="3"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19">
       <c r="A462" s="1"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -10263,7 +11483,7 @@
       <c r="R462" s="3"/>
       <c r="S462" s="3"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19">
       <c r="A463" s="1"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -10284,7 +11504,7 @@
       <c r="R463" s="3"/>
       <c r="S463" s="3"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19">
       <c r="A464" s="1"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -10305,7 +11525,7 @@
       <c r="R464" s="3"/>
       <c r="S464" s="3"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19">
       <c r="A465" s="1"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -10326,7 +11546,7 @@
       <c r="R465" s="3"/>
       <c r="S465" s="3"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19">
       <c r="A466" s="1"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -10347,7 +11567,7 @@
       <c r="R466" s="3"/>
       <c r="S466" s="3"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19">
       <c r="A467" s="1"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -10368,7 +11588,7 @@
       <c r="R467" s="3"/>
       <c r="S467" s="3"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19">
       <c r="A468" s="1"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -10389,7 +11609,7 @@
       <c r="R468" s="3"/>
       <c r="S468" s="3"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19">
       <c r="A469" s="1"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -10410,7 +11630,7 @@
       <c r="R469" s="3"/>
       <c r="S469" s="3"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19">
       <c r="A470" s="1"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -10431,7 +11651,7 @@
       <c r="R470" s="3"/>
       <c r="S470" s="3"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19">
       <c r="A471" s="1"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -10452,7 +11672,7 @@
       <c r="R471" s="3"/>
       <c r="S471" s="3"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19">
       <c r="A472" s="1"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -10473,7 +11693,7 @@
       <c r="R472" s="3"/>
       <c r="S472" s="3"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19">
       <c r="A473" s="1"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -10494,7 +11714,7 @@
       <c r="R473" s="3"/>
       <c r="S473" s="3"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19">
       <c r="A474" s="1"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -10515,7 +11735,7 @@
       <c r="R474" s="3"/>
       <c r="S474" s="3"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19">
       <c r="A475" s="1"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -10536,7 +11756,7 @@
       <c r="R475" s="3"/>
       <c r="S475" s="3"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19">
       <c r="A476" s="1"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -10557,7 +11777,7 @@
       <c r="R476" s="3"/>
       <c r="S476" s="3"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19">
       <c r="A477" s="1"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -10578,7 +11798,7 @@
       <c r="R477" s="3"/>
       <c r="S477" s="3"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19">
       <c r="A478" s="1"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -10599,7 +11819,7 @@
       <c r="R478" s="3"/>
       <c r="S478" s="3"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19">
       <c r="A479" s="1"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -10620,7 +11840,7 @@
       <c r="R479" s="3"/>
       <c r="S479" s="3"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19">
       <c r="A480" s="1"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -10641,7 +11861,7 @@
       <c r="R480" s="3"/>
       <c r="S480" s="3"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19">
       <c r="A481" s="1"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -10662,7 +11882,7 @@
       <c r="R481" s="3"/>
       <c r="S481" s="3"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19">
       <c r="A482" s="1"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -10683,7 +11903,7 @@
       <c r="R482" s="3"/>
       <c r="S482" s="3"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19">
       <c r="A483" s="1"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -10704,7 +11924,7 @@
       <c r="R483" s="3"/>
       <c r="S483" s="3"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19">
       <c r="A484" s="1"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -10725,7 +11945,7 @@
       <c r="R484" s="3"/>
       <c r="S484" s="3"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19">
       <c r="A485" s="1"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -10746,7 +11966,7 @@
       <c r="R485" s="3"/>
       <c r="S485" s="3"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19">
       <c r="A486" s="1"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -10767,7 +11987,7 @@
       <c r="R486" s="3"/>
       <c r="S486" s="3"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19">
       <c r="A487" s="1"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -10788,7 +12008,7 @@
       <c r="R487" s="3"/>
       <c r="S487" s="3"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19">
       <c r="A488" s="1"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -10809,7 +12029,7 @@
       <c r="R488" s="3"/>
       <c r="S488" s="3"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19">
       <c r="A489" s="1"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -10830,7 +12050,7 @@
       <c r="R489" s="3"/>
       <c r="S489" s="3"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19">
       <c r="A490" s="1"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -10851,7 +12071,7 @@
       <c r="R490" s="3"/>
       <c r="S490" s="3"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19">
       <c r="A491" s="1"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -10872,7 +12092,7 @@
       <c r="R491" s="3"/>
       <c r="S491" s="3"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19">
       <c r="A492" s="1"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -10893,7 +12113,7 @@
       <c r="R492" s="3"/>
       <c r="S492" s="3"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19">
       <c r="A493" s="1"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -10914,7 +12134,7 @@
       <c r="R493" s="3"/>
       <c r="S493" s="3"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19">
       <c r="A494" s="1"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -10935,7 +12155,7 @@
       <c r="R494" s="3"/>
       <c r="S494" s="3"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19">
       <c r="A495" s="1"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -10956,7 +12176,7 @@
       <c r="R495" s="3"/>
       <c r="S495" s="3"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19">
       <c r="A496" s="1"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -10977,7 +12197,7 @@
       <c r="R496" s="3"/>
       <c r="S496" s="3"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19">
       <c r="A497" s="1"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -10998,7 +12218,7 @@
       <c r="R497" s="3"/>
       <c r="S497" s="3"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19">
       <c r="A498" s="1"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -11019,7 +12239,7 @@
       <c r="R498" s="3"/>
       <c r="S498" s="3"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19">
       <c r="A499" s="1"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -11040,7 +12260,7 @@
       <c r="R499" s="3"/>
       <c r="S499" s="3"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19">
       <c r="A500" s="1"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -11061,7 +12281,7 @@
       <c r="R500" s="3"/>
       <c r="S500" s="3"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19">
       <c r="A501" s="1"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -11082,7 +12302,7 @@
       <c r="R501" s="3"/>
       <c r="S501" s="3"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19">
       <c r="A502" s="1"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -11103,7 +12323,7 @@
       <c r="R502" s="3"/>
       <c r="S502" s="3"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19">
       <c r="A503" s="1"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -11124,7 +12344,7 @@
       <c r="R503" s="3"/>
       <c r="S503" s="3"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19">
       <c r="A504" s="1"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -11145,7 +12365,7 @@
       <c r="R504" s="3"/>
       <c r="S504" s="3"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19">
       <c r="A505" s="1"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -11166,7 +12386,7 @@
       <c r="R505" s="3"/>
       <c r="S505" s="3"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19">
       <c r="A506" s="1"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -11187,7 +12407,7 @@
       <c r="R506" s="3"/>
       <c r="S506" s="3"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19">
       <c r="A507" s="1"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -11208,7 +12428,7 @@
       <c r="R507" s="3"/>
       <c r="S507" s="3"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19">
       <c r="A508" s="1"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -11229,7 +12449,7 @@
       <c r="R508" s="3"/>
       <c r="S508" s="3"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19">
       <c r="A509" s="1"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -11250,7 +12470,7 @@
       <c r="R509" s="3"/>
       <c r="S509" s="3"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19">
       <c r="A510" s="1"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -11271,7 +12491,7 @@
       <c r="R510" s="3"/>
       <c r="S510" s="3"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19">
       <c r="A511" s="1"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -11292,7 +12512,7 @@
       <c r="R511" s="3"/>
       <c r="S511" s="3"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19">
       <c r="A512" s="1"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -11313,7 +12533,7 @@
       <c r="R512" s="3"/>
       <c r="S512" s="3"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19">
       <c r="A513" s="1"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -11334,7 +12554,7 @@
       <c r="R513" s="3"/>
       <c r="S513" s="3"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19">
       <c r="A514" s="1"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -11355,7 +12575,7 @@
       <c r="R514" s="3"/>
       <c r="S514" s="3"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19">
       <c r="A515" s="1"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -11376,7 +12596,7 @@
       <c r="R515" s="3"/>
       <c r="S515" s="3"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19">
       <c r="A516" s="1"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -11397,7 +12617,7 @@
       <c r="R516" s="3"/>
       <c r="S516" s="3"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19">
       <c r="A517" s="1"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -11418,7 +12638,7 @@
       <c r="R517" s="3"/>
       <c r="S517" s="3"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19">
       <c r="A518" s="1"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -11439,7 +12659,7 @@
       <c r="R518" s="3"/>
       <c r="S518" s="3"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19">
       <c r="A519" s="1"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -11460,7 +12680,7 @@
       <c r="R519" s="3"/>
       <c r="S519" s="3"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19">
       <c r="A520" s="1"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -11481,7 +12701,7 @@
       <c r="R520" s="3"/>
       <c r="S520" s="3"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19">
       <c r="A521" s="1"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -11502,7 +12722,7 @@
       <c r="R521" s="3"/>
       <c r="S521" s="3"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19">
       <c r="A522" s="1"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -11523,7 +12743,7 @@
       <c r="R522" s="3"/>
       <c r="S522" s="3"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19">
       <c r="A523" s="1"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -11544,7 +12764,7 @@
       <c r="R523" s="3"/>
       <c r="S523" s="3"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19">
       <c r="A524" s="1"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -11565,7 +12785,7 @@
       <c r="R524" s="3"/>
       <c r="S524" s="3"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19">
       <c r="A525" s="1"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -11586,7 +12806,7 @@
       <c r="R525" s="3"/>
       <c r="S525" s="3"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19">
       <c r="A526" s="1"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -11607,7 +12827,7 @@
       <c r="R526" s="3"/>
       <c r="S526" s="3"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19">
       <c r="A527" s="1"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -11628,7 +12848,7 @@
       <c r="R527" s="3"/>
       <c r="S527" s="3"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19">
       <c r="A528" s="1"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -11649,7 +12869,7 @@
       <c r="R528" s="3"/>
       <c r="S528" s="3"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19">
       <c r="A529" s="1"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -11670,7 +12890,7 @@
       <c r="R529" s="3"/>
       <c r="S529" s="3"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19">
       <c r="A530" s="1"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -11691,7 +12911,7 @@
       <c r="R530" s="3"/>
       <c r="S530" s="3"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19">
       <c r="A531" s="1"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -11712,7 +12932,7 @@
       <c r="R531" s="3"/>
       <c r="S531" s="3"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19">
       <c r="A532" s="1"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -11733,7 +12953,7 @@
       <c r="R532" s="3"/>
       <c r="S532" s="3"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19">
       <c r="A533" s="1"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -11754,7 +12974,7 @@
       <c r="R533" s="3"/>
       <c r="S533" s="3"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19">
       <c r="A534" s="1"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -11775,7 +12995,7 @@
       <c r="R534" s="3"/>
       <c r="S534" s="3"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19">
       <c r="A535" s="1"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -11796,7 +13016,7 @@
       <c r="R535" s="3"/>
       <c r="S535" s="3"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19">
       <c r="A536" s="1"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -11817,7 +13037,7 @@
       <c r="R536" s="3"/>
       <c r="S536" s="3"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19">
       <c r="A537" s="1"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -11838,7 +13058,7 @@
       <c r="R537" s="3"/>
       <c r="S537" s="3"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19">
       <c r="A538" s="1"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -11859,7 +13079,7 @@
       <c r="R538" s="3"/>
       <c r="S538" s="3"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19">
       <c r="A539" s="1"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -11880,7 +13100,7 @@
       <c r="R539" s="3"/>
       <c r="S539" s="3"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19">
       <c r="A540" s="1"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -11901,7 +13121,7 @@
       <c r="R540" s="3"/>
       <c r="S540" s="3"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19">
       <c r="A541" s="1"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -11922,7 +13142,7 @@
       <c r="R541" s="3"/>
       <c r="S541" s="3"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19">
       <c r="A542" s="1"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -11943,7 +13163,7 @@
       <c r="R542" s="3"/>
       <c r="S542" s="3"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19">
       <c r="A543" s="1"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -11964,7 +13184,7 @@
       <c r="R543" s="3"/>
       <c r="S543" s="3"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19">
       <c r="A544" s="1"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -11985,7 +13205,7 @@
       <c r="R544" s="3"/>
       <c r="S544" s="3"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19">
       <c r="A545" s="1"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -12006,7 +13226,7 @@
       <c r="R545" s="3"/>
       <c r="S545" s="3"/>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19">
       <c r="A546" s="1"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -12027,7 +13247,7 @@
       <c r="R546" s="3"/>
       <c r="S546" s="3"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19">
       <c r="A547" s="1"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -12048,7 +13268,7 @@
       <c r="R547" s="3"/>
       <c r="S547" s="3"/>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19">
       <c r="A548" s="1"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -12069,7 +13289,7 @@
       <c r="R548" s="3"/>
       <c r="S548" s="3"/>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19">
       <c r="A549" s="1"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -12090,7 +13310,7 @@
       <c r="R549" s="3"/>
       <c r="S549" s="3"/>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19">
       <c r="A550" s="1"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -12111,7 +13331,7 @@
       <c r="R550" s="3"/>
       <c r="S550" s="3"/>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19">
       <c r="A551" s="1"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -12132,7 +13352,7 @@
       <c r="R551" s="3"/>
       <c r="S551" s="3"/>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19">
       <c r="A552" s="1"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -12153,7 +13373,7 @@
       <c r="R552" s="3"/>
       <c r="S552" s="3"/>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19">
       <c r="A553" s="1"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -12174,7 +13394,7 @@
       <c r="R553" s="3"/>
       <c r="S553" s="3"/>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19">
       <c r="A554" s="1"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -12195,7 +13415,7 @@
       <c r="R554" s="3"/>
       <c r="S554" s="3"/>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19">
       <c r="A555" s="1"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -12216,7 +13436,7 @@
       <c r="R555" s="3"/>
       <c r="S555" s="3"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19">
       <c r="A556" s="1"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -12237,7 +13457,7 @@
       <c r="R556" s="3"/>
       <c r="S556" s="3"/>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19">
       <c r="A557" s="1"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -12258,7 +13478,7 @@
       <c r="R557" s="3"/>
       <c r="S557" s="3"/>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19">
       <c r="A558" s="1"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -12279,7 +13499,7 @@
       <c r="R558" s="3"/>
       <c r="S558" s="3"/>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19">
       <c r="A559" s="1"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -12300,7 +13520,7 @@
       <c r="R559" s="3"/>
       <c r="S559" s="3"/>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19">
       <c r="A560" s="1"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -12321,7 +13541,7 @@
       <c r="R560" s="3"/>
       <c r="S560" s="3"/>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19">
       <c r="A561" s="1"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -12342,7 +13562,7 @@
       <c r="R561" s="3"/>
       <c r="S561" s="3"/>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19">
       <c r="A562" s="1"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -12363,7 +13583,7 @@
       <c r="R562" s="3"/>
       <c r="S562" s="3"/>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19">
       <c r="A563" s="1"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -12384,7 +13604,7 @@
       <c r="R563" s="3"/>
       <c r="S563" s="3"/>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19">
       <c r="A564" s="1"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -12405,7 +13625,7 @@
       <c r="R564" s="3"/>
       <c r="S564" s="3"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19">
       <c r="A565" s="1"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -12426,7 +13646,7 @@
       <c r="R565" s="3"/>
       <c r="S565" s="3"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19">
       <c r="A566" s="1"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -12447,7 +13667,7 @@
       <c r="R566" s="3"/>
       <c r="S566" s="3"/>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19">
       <c r="A567" s="1"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -12468,7 +13688,7 @@
       <c r="R567" s="3"/>
       <c r="S567" s="3"/>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19">
       <c r="A568" s="1"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -12489,7 +13709,7 @@
       <c r="R568" s="3"/>
       <c r="S568" s="3"/>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19">
       <c r="A569" s="1"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -12510,7 +13730,7 @@
       <c r="R569" s="3"/>
       <c r="S569" s="3"/>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19">
       <c r="A570" s="1"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -12531,7 +13751,7 @@
       <c r="R570" s="3"/>
       <c r="S570" s="3"/>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19">
       <c r="A571" s="1"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -12552,7 +13772,7 @@
       <c r="R571" s="3"/>
       <c r="S571" s="3"/>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19">
       <c r="A572" s="1"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -12573,7 +13793,7 @@
       <c r="R572" s="3"/>
       <c r="S572" s="3"/>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19">
       <c r="A573" s="1"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -12594,7 +13814,7 @@
       <c r="R573" s="3"/>
       <c r="S573" s="3"/>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19">
       <c r="A574" s="1"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -12615,7 +13835,7 @@
       <c r="R574" s="3"/>
       <c r="S574" s="3"/>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19">
       <c r="A575" s="1"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -12636,7 +13856,7 @@
       <c r="R575" s="3"/>
       <c r="S575" s="3"/>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19">
       <c r="A576" s="1"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -12657,7 +13877,7 @@
       <c r="R576" s="3"/>
       <c r="S576" s="3"/>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19">
       <c r="A577" s="1"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -12678,7 +13898,7 @@
       <c r="R577" s="3"/>
       <c r="S577" s="3"/>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19">
       <c r="A578" s="1"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -12699,7 +13919,7 @@
       <c r="R578" s="3"/>
       <c r="S578" s="3"/>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19">
       <c r="A579" s="1"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -12720,7 +13940,7 @@
       <c r="R579" s="3"/>
       <c r="S579" s="3"/>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19">
       <c r="A580" s="1"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -12741,7 +13961,7 @@
       <c r="R580" s="3"/>
       <c r="S580" s="3"/>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19">
       <c r="A581" s="1"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -12762,7 +13982,7 @@
       <c r="R581" s="3"/>
       <c r="S581" s="3"/>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19">
       <c r="A582" s="1"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -12783,7 +14003,7 @@
       <c r="R582" s="3"/>
       <c r="S582" s="3"/>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19">
       <c r="A583" s="1"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -12804,7 +14024,7 @@
       <c r="R583" s="3"/>
       <c r="S583" s="3"/>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19">
       <c r="A584" s="1"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -12825,7 +14045,7 @@
       <c r="R584" s="3"/>
       <c r="S584" s="3"/>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19">
       <c r="A585" s="1"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -12846,7 +14066,7 @@
       <c r="R585" s="3"/>
       <c r="S585" s="3"/>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19">
       <c r="A586" s="1"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -12867,7 +14087,7 @@
       <c r="R586" s="3"/>
       <c r="S586" s="3"/>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:19">
       <c r="A587" s="1"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -12888,7 +14108,7 @@
       <c r="R587" s="3"/>
       <c r="S587" s="3"/>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:19">
       <c r="A588" s="1"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -12909,7 +14129,7 @@
       <c r="R588" s="3"/>
       <c r="S588" s="3"/>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:19">
       <c r="A589" s="1"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -12930,7 +14150,7 @@
       <c r="R589" s="3"/>
       <c r="S589" s="3"/>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:19">
       <c r="A590" s="1"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -12951,7 +14171,7 @@
       <c r="R590" s="3"/>
       <c r="S590" s="3"/>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19">
       <c r="A591" s="1"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -12972,7 +14192,7 @@
       <c r="R591" s="3"/>
       <c r="S591" s="3"/>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19">
       <c r="A592" s="1"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -12993,7 +14213,7 @@
       <c r="R592" s="3"/>
       <c r="S592" s="3"/>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19">
       <c r="A593" s="1"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -13014,7 +14234,7 @@
       <c r="R593" s="3"/>
       <c r="S593" s="3"/>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19">
       <c r="A594" s="1"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -13035,7 +14255,7 @@
       <c r="R594" s="3"/>
       <c r="S594" s="3"/>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19">
       <c r="A595" s="1"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -13056,7 +14276,7 @@
       <c r="R595" s="3"/>
       <c r="S595" s="3"/>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19">
       <c r="A596" s="1"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -13077,7 +14297,7 @@
       <c r="R596" s="3"/>
       <c r="S596" s="3"/>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19">
       <c r="A597" s="1"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -13098,7 +14318,7 @@
       <c r="R597" s="3"/>
       <c r="S597" s="3"/>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19">
       <c r="A598" s="1"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -13119,7 +14339,7 @@
       <c r="R598" s="3"/>
       <c r="S598" s="3"/>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19">
       <c r="A599" s="1"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -13140,7 +14360,7 @@
       <c r="R599" s="3"/>
       <c r="S599" s="3"/>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19">
       <c r="A600" s="1"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -13161,7 +14381,7 @@
       <c r="R600" s="3"/>
       <c r="S600" s="3"/>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19">
       <c r="A601" s="1"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -13182,7 +14402,7 @@
       <c r="R601" s="3"/>
       <c r="S601" s="3"/>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19">
       <c r="A602" s="1"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -13203,7 +14423,7 @@
       <c r="R602" s="3"/>
       <c r="S602" s="3"/>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19">
       <c r="A603" s="1"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -13224,7 +14444,7 @@
       <c r="R603" s="3"/>
       <c r="S603" s="3"/>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19">
       <c r="A604" s="1"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -13245,7 +14465,7 @@
       <c r="R604" s="3"/>
       <c r="S604" s="3"/>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19">
       <c r="A605" s="1"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -13266,7 +14486,7 @@
       <c r="R605" s="3"/>
       <c r="S605" s="3"/>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19">
       <c r="A606" s="1"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -13287,7 +14507,7 @@
       <c r="R606" s="3"/>
       <c r="S606" s="3"/>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19">
       <c r="A607" s="1"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -13308,7 +14528,7 @@
       <c r="R607" s="3"/>
       <c r="S607" s="3"/>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19">
       <c r="A608" s="1"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -13329,7 +14549,7 @@
       <c r="R608" s="3"/>
       <c r="S608" s="3"/>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19">
       <c r="A609" s="1"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -13350,7 +14570,7 @@
       <c r="R609" s="3"/>
       <c r="S609" s="3"/>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19">
       <c r="A610" s="1"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -13371,7 +14591,7 @@
       <c r="R610" s="3"/>
       <c r="S610" s="3"/>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19">
       <c r="A611" s="1"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -13392,7 +14612,7 @@
       <c r="R611" s="3"/>
       <c r="S611" s="3"/>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:19">
       <c r="A612" s="1"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -13413,7 +14633,7 @@
       <c r="R612" s="3"/>
       <c r="S612" s="3"/>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19">
       <c r="A613" s="1"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -13434,7 +14654,7 @@
       <c r="R613" s="3"/>
       <c r="S613" s="3"/>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19">
       <c r="A614" s="1"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -13455,7 +14675,7 @@
       <c r="R614" s="3"/>
       <c r="S614" s="3"/>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19">
       <c r="A615" s="1"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -13476,7 +14696,7 @@
       <c r="R615" s="3"/>
       <c r="S615" s="3"/>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19">
       <c r="A616" s="1"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -13497,7 +14717,7 @@
       <c r="R616" s="3"/>
       <c r="S616" s="3"/>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19">
       <c r="A617" s="1"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -13518,7 +14738,7 @@
       <c r="R617" s="3"/>
       <c r="S617" s="3"/>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19">
       <c r="A618" s="1"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -13539,7 +14759,7 @@
       <c r="R618" s="3"/>
       <c r="S618" s="3"/>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19">
       <c r="A619" s="1"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -13560,7 +14780,7 @@
       <c r="R619" s="3"/>
       <c r="S619" s="3"/>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19">
       <c r="A620" s="1"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -13581,7 +14801,7 @@
       <c r="R620" s="3"/>
       <c r="S620" s="3"/>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19">
       <c r="A621" s="1"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -13602,7 +14822,7 @@
       <c r="R621" s="3"/>
       <c r="S621" s="3"/>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19">
       <c r="A622" s="1"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -13623,7 +14843,7 @@
       <c r="R622" s="3"/>
       <c r="S622" s="3"/>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19">
       <c r="A623" s="1"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -13644,7 +14864,7 @@
       <c r="R623" s="3"/>
       <c r="S623" s="3"/>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19">
       <c r="A624" s="1"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -13665,7 +14885,7 @@
       <c r="R624" s="3"/>
       <c r="S624" s="3"/>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19">
       <c r="A625" s="1"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -13686,7 +14906,7 @@
       <c r="R625" s="3"/>
       <c r="S625" s="3"/>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19">
       <c r="A626" s="1"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -13707,7 +14927,7 @@
       <c r="R626" s="3"/>
       <c r="S626" s="3"/>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19">
       <c r="A627" s="1"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -13728,7 +14948,7 @@
       <c r="R627" s="3"/>
       <c r="S627" s="3"/>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19">
       <c r="A628" s="1"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -13749,7 +14969,7 @@
       <c r="R628" s="3"/>
       <c r="S628" s="3"/>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19">
       <c r="A629" s="1"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -13770,7 +14990,7 @@
       <c r="R629" s="3"/>
       <c r="S629" s="3"/>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19">
       <c r="A630" s="1"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -13791,7 +15011,7 @@
       <c r="R630" s="3"/>
       <c r="S630" s="3"/>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19">
       <c r="A631" s="1"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -13812,7 +15032,7 @@
       <c r="R631" s="3"/>
       <c r="S631" s="3"/>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19">
       <c r="A632" s="1"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -13833,7 +15053,7 @@
       <c r="R632" s="3"/>
       <c r="S632" s="3"/>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19">
       <c r="A633" s="1"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -13854,7 +15074,7 @@
       <c r="R633" s="3"/>
       <c r="S633" s="3"/>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19">
       <c r="A634" s="1"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -13875,7 +15095,7 @@
       <c r="R634" s="3"/>
       <c r="S634" s="3"/>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19">
       <c r="A635" s="1"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -13896,7 +15116,7 @@
       <c r="R635" s="3"/>
       <c r="S635" s="3"/>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19">
       <c r="A636" s="1"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -13917,7 +15137,7 @@
       <c r="R636" s="3"/>
       <c r="S636" s="3"/>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19">
       <c r="A637" s="1"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -13938,7 +15158,7 @@
       <c r="R637" s="3"/>
       <c r="S637" s="3"/>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19">
       <c r="A638" s="1"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -13959,7 +15179,7 @@
       <c r="R638" s="3"/>
       <c r="S638" s="3"/>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19">
       <c r="A639" s="1"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -13980,7 +15200,7 @@
       <c r="R639" s="3"/>
       <c r="S639" s="3"/>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19">
       <c r="A640" s="1"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -14001,7 +15221,7 @@
       <c r="R640" s="3"/>
       <c r="S640" s="3"/>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19">
       <c r="A641" s="1"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -14022,7 +15242,7 @@
       <c r="R641" s="3"/>
       <c r="S641" s="3"/>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:19">
       <c r="A642" s="1"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -14043,7 +15263,7 @@
       <c r="R642" s="3"/>
       <c r="S642" s="3"/>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19">
       <c r="A643" s="1"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -14064,7 +15284,7 @@
       <c r="R643" s="3"/>
       <c r="S643" s="3"/>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19">
       <c r="A644" s="1"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -14085,7 +15305,7 @@
       <c r="R644" s="3"/>
       <c r="S644" s="3"/>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19">
       <c r="A645" s="1"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -14106,7 +15326,7 @@
       <c r="R645" s="3"/>
       <c r="S645" s="3"/>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19">
       <c r="A646" s="1"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -14127,7 +15347,7 @@
       <c r="R646" s="3"/>
       <c r="S646" s="3"/>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19">
       <c r="A647" s="1"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -14148,7 +15368,7 @@
       <c r="R647" s="3"/>
       <c r="S647" s="3"/>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19">
       <c r="A648" s="1"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -14169,7 +15389,7 @@
       <c r="R648" s="3"/>
       <c r="S648" s="3"/>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19">
       <c r="A649" s="1"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -14190,7 +15410,7 @@
       <c r="R649" s="3"/>
       <c r="S649" s="3"/>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19">
       <c r="A650" s="1"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -14211,7 +15431,7 @@
       <c r="R650" s="3"/>
       <c r="S650" s="3"/>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19">
       <c r="A651" s="1"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -14232,7 +15452,7 @@
       <c r="R651" s="3"/>
       <c r="S651" s="3"/>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19">
       <c r="A652" s="1"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -14253,7 +15473,7 @@
       <c r="R652" s="3"/>
       <c r="S652" s="3"/>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19">
       <c r="A653" s="1"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -14274,7 +15494,7 @@
       <c r="R653" s="3"/>
       <c r="S653" s="3"/>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19">
       <c r="A654" s="1"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -14295,7 +15515,7 @@
       <c r="R654" s="3"/>
       <c r="S654" s="3"/>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19">
       <c r="A655" s="1"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -14316,7 +15536,7 @@
       <c r="R655" s="3"/>
       <c r="S655" s="3"/>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19">
       <c r="A656" s="1"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -14337,7 +15557,7 @@
       <c r="R656" s="3"/>
       <c r="S656" s="3"/>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19">
       <c r="A657" s="1"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -14358,7 +15578,7 @@
       <c r="R657" s="3"/>
       <c r="S657" s="3"/>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19">
       <c r="A658" s="1"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -14379,7 +15599,7 @@
       <c r="R658" s="3"/>
       <c r="S658" s="3"/>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19">
       <c r="A659" s="1"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -14400,7 +15620,7 @@
       <c r="R659" s="3"/>
       <c r="S659" s="3"/>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19">
       <c r="A660" s="1"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -14421,7 +15641,7 @@
       <c r="R660" s="3"/>
       <c r="S660" s="3"/>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19">
       <c r="A661" s="1"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -14442,7 +15662,7 @@
       <c r="R661" s="3"/>
       <c r="S661" s="3"/>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19">
       <c r="A662" s="1"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -14463,7 +15683,7 @@
       <c r="R662" s="3"/>
       <c r="S662" s="3"/>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19">
       <c r="A663" s="1"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -14484,7 +15704,7 @@
       <c r="R663" s="3"/>
       <c r="S663" s="3"/>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19">
       <c r="A664" s="1"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -14505,7 +15725,7 @@
       <c r="R664" s="3"/>
       <c r="S664" s="3"/>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19">
       <c r="A665" s="1"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -14526,7 +15746,7 @@
       <c r="R665" s="3"/>
       <c r="S665" s="3"/>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19">
       <c r="A666" s="1"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -14547,7 +15767,7 @@
       <c r="R666" s="3"/>
       <c r="S666" s="3"/>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19">
       <c r="A667" s="1"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -14568,7 +15788,7 @@
       <c r="R667" s="3"/>
       <c r="S667" s="3"/>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19">
       <c r="A668" s="1"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -14589,7 +15809,7 @@
       <c r="R668" s="3"/>
       <c r="S668" s="3"/>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19">
       <c r="A669" s="1"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -14610,7 +15830,7 @@
       <c r="R669" s="3"/>
       <c r="S669" s="3"/>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19">
       <c r="A670" s="1"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -14631,7 +15851,7 @@
       <c r="R670" s="3"/>
       <c r="S670" s="3"/>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19">
       <c r="A671" s="1"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -14652,7 +15872,7 @@
       <c r="R671" s="3"/>
       <c r="S671" s="3"/>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19">
       <c r="A672" s="1"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -14673,7 +15893,7 @@
       <c r="R672" s="3"/>
       <c r="S672" s="3"/>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19">
       <c r="A673" s="1"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -14694,7 +15914,7 @@
       <c r="R673" s="3"/>
       <c r="S673" s="3"/>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19">
       <c r="A674" s="1"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -14715,7 +15935,7 @@
       <c r="R674" s="3"/>
       <c r="S674" s="3"/>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19">
       <c r="A675" s="1"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -14736,7 +15956,7 @@
       <c r="R675" s="3"/>
       <c r="S675" s="3"/>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19">
       <c r="A676" s="1"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -14757,7 +15977,7 @@
       <c r="R676" s="3"/>
       <c r="S676" s="3"/>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19">
       <c r="A677" s="1"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -14778,7 +15998,7 @@
       <c r="R677" s="3"/>
       <c r="S677" s="3"/>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19">
       <c r="A678" s="1"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -14799,7 +16019,7 @@
       <c r="R678" s="3"/>
       <c r="S678" s="3"/>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19">
       <c r="A679" s="1"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -14820,7 +16040,7 @@
       <c r="R679" s="3"/>
       <c r="S679" s="3"/>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19">
       <c r="A680" s="1"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -14841,7 +16061,7 @@
       <c r="R680" s="3"/>
       <c r="S680" s="3"/>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19">
       <c r="A681" s="1"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -14862,7 +16082,7 @@
       <c r="R681" s="3"/>
       <c r="S681" s="3"/>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19">
       <c r="A682" s="1"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -14883,7 +16103,7 @@
       <c r="R682" s="3"/>
       <c r="S682" s="3"/>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19">
       <c r="A683" s="1"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -14904,7 +16124,7 @@
       <c r="R683" s="3"/>
       <c r="S683" s="3"/>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19">
       <c r="A684" s="1"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -14925,7 +16145,7 @@
       <c r="R684" s="3"/>
       <c r="S684" s="3"/>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19">
       <c r="A685" s="1"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -14946,7 +16166,7 @@
       <c r="R685" s="3"/>
       <c r="S685" s="3"/>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19">
       <c r="A686" s="1"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -14967,7 +16187,7 @@
       <c r="R686" s="3"/>
       <c r="S686" s="3"/>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19">
       <c r="A687" s="1"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -14988,7 +16208,7 @@
       <c r="R687" s="3"/>
       <c r="S687" s="3"/>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19">
       <c r="A688" s="1"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -15009,7 +16229,7 @@
       <c r="R688" s="3"/>
       <c r="S688" s="3"/>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19">
       <c r="A689" s="1"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -15030,7 +16250,7 @@
       <c r="R689" s="3"/>
       <c r="S689" s="3"/>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19">
       <c r="A690" s="1"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -15051,7 +16271,7 @@
       <c r="R690" s="3"/>
       <c r="S690" s="3"/>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19">
       <c r="A691" s="1"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -15072,7 +16292,7 @@
       <c r="R691" s="3"/>
       <c r="S691" s="3"/>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:19">
       <c r="A692" s="1"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -15093,7 +16313,7 @@
       <c r="R692" s="3"/>
       <c r="S692" s="3"/>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19">
       <c r="A693" s="1"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -15114,7 +16334,7 @@
       <c r="R693" s="3"/>
       <c r="S693" s="3"/>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19">
       <c r="A694" s="1"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -15135,7 +16355,7 @@
       <c r="R694" s="3"/>
       <c r="S694" s="3"/>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19">
       <c r="A695" s="1"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -15156,7 +16376,7 @@
       <c r="R695" s="3"/>
       <c r="S695" s="3"/>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19">
       <c r="A696" s="1"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -15177,7 +16397,7 @@
       <c r="R696" s="3"/>
       <c r="S696" s="3"/>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19">
       <c r="A697" s="1"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -15198,7 +16418,7 @@
       <c r="R697" s="3"/>
       <c r="S697" s="3"/>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19">
       <c r="A698" s="1"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -15219,7 +16439,7 @@
       <c r="R698" s="3"/>
       <c r="S698" s="3"/>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19">
       <c r="A699" s="1"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -15240,7 +16460,7 @@
       <c r="R699" s="3"/>
       <c r="S699" s="3"/>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19">
       <c r="A700" s="1"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -15261,7 +16481,7 @@
       <c r="R700" s="3"/>
       <c r="S700" s="3"/>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19">
       <c r="A701" s="1"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -15282,7 +16502,7 @@
       <c r="R701" s="3"/>
       <c r="S701" s="3"/>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19">
       <c r="A702" s="1"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -15303,7 +16523,7 @@
       <c r="R702" s="3"/>
       <c r="S702" s="3"/>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19">
       <c r="A703" s="1"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -15324,7 +16544,7 @@
       <c r="R703" s="3"/>
       <c r="S703" s="3"/>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19">
       <c r="A704" s="1"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -15345,7 +16565,7 @@
       <c r="R704" s="3"/>
       <c r="S704" s="3"/>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19">
       <c r="A705" s="1"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -15366,7 +16586,7 @@
       <c r="R705" s="3"/>
       <c r="S705" s="3"/>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19">
       <c r="A706" s="1"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -15387,7 +16607,7 @@
       <c r="R706" s="3"/>
       <c r="S706" s="3"/>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19">
       <c r="A707" s="1"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -15408,7 +16628,7 @@
       <c r="R707" s="3"/>
       <c r="S707" s="3"/>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19">
       <c r="A708" s="1"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -15429,7 +16649,7 @@
       <c r="R708" s="3"/>
       <c r="S708" s="3"/>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19">
       <c r="A709" s="1"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -15450,7 +16670,7 @@
       <c r="R709" s="3"/>
       <c r="S709" s="3"/>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19">
       <c r="A710" s="1"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -15471,7 +16691,7 @@
       <c r="R710" s="3"/>
       <c r="S710" s="3"/>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19">
       <c r="A711" s="1"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -15492,7 +16712,7 @@
       <c r="R711" s="3"/>
       <c r="S711" s="3"/>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19">
       <c r="A712" s="1"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -15513,7 +16733,7 @@
       <c r="R712" s="3"/>
       <c r="S712" s="3"/>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19">
       <c r="A713" s="1"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -15534,7 +16754,7 @@
       <c r="R713" s="3"/>
       <c r="S713" s="3"/>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19">
       <c r="A714" s="1"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -15555,7 +16775,7 @@
       <c r="R714" s="3"/>
       <c r="S714" s="3"/>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19">
       <c r="A715" s="1"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -15576,7 +16796,7 @@
       <c r="R715" s="3"/>
       <c r="S715" s="3"/>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19">
       <c r="A716" s="1"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -15597,7 +16817,7 @@
       <c r="R716" s="3"/>
       <c r="S716" s="3"/>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19">
       <c r="A717" s="1"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -15618,7 +16838,7 @@
       <c r="R717" s="3"/>
       <c r="S717" s="3"/>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19">
       <c r="A718" s="1"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -15639,7 +16859,7 @@
       <c r="R718" s="3"/>
       <c r="S718" s="3"/>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19">
       <c r="A719" s="1"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -15660,7 +16880,7 @@
       <c r="R719" s="3"/>
       <c r="S719" s="3"/>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19">
       <c r="A720" s="1"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -15681,7 +16901,7 @@
       <c r="R720" s="3"/>
       <c r="S720" s="3"/>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19">
       <c r="A721" s="1"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -15702,7 +16922,7 @@
       <c r="R721" s="3"/>
       <c r="S721" s="3"/>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:19">
       <c r="A722" s="1"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -15723,7 +16943,7 @@
       <c r="R722" s="3"/>
       <c r="S722" s="3"/>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19">
       <c r="A723" s="1"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -15744,7 +16964,7 @@
       <c r="R723" s="3"/>
       <c r="S723" s="3"/>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19">
       <c r="A724" s="1"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -15765,7 +16985,7 @@
       <c r="R724" s="3"/>
       <c r="S724" s="3"/>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19">
       <c r="A725" s="1"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -15786,7 +17006,7 @@
       <c r="R725" s="3"/>
       <c r="S725" s="3"/>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19">
       <c r="A726" s="1"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -15807,7 +17027,7 @@
       <c r="R726" s="3"/>
       <c r="S726" s="3"/>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19">
       <c r="A727" s="1"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -15828,7 +17048,7 @@
       <c r="R727" s="3"/>
       <c r="S727" s="3"/>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19">
       <c r="A728" s="1"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -15849,7 +17069,7 @@
       <c r="R728" s="3"/>
       <c r="S728" s="3"/>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19">
       <c r="A729" s="1"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -15870,7 +17090,7 @@
       <c r="R729" s="3"/>
       <c r="S729" s="3"/>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19">
       <c r="A730" s="1"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -15891,7 +17111,7 @@
       <c r="R730" s="3"/>
       <c r="S730" s="3"/>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19">
       <c r="A731" s="1"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -15912,7 +17132,7 @@
       <c r="R731" s="3"/>
       <c r="S731" s="3"/>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19">
       <c r="A732" s="1"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -15933,7 +17153,7 @@
       <c r="R732" s="3"/>
       <c r="S732" s="3"/>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19">
       <c r="A733" s="1"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -15954,7 +17174,7 @@
       <c r="R733" s="3"/>
       <c r="S733" s="3"/>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19">
       <c r="A734" s="1"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -15975,7 +17195,7 @@
       <c r="R734" s="3"/>
       <c r="S734" s="3"/>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19">
       <c r="A735" s="1"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -15996,7 +17216,7 @@
       <c r="R735" s="3"/>
       <c r="S735" s="3"/>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19">
       <c r="A736" s="1"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -16017,7 +17237,7 @@
       <c r="R736" s="3"/>
       <c r="S736" s="3"/>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:19">
       <c r="A737" s="1"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -16038,7 +17258,7 @@
       <c r="R737" s="3"/>
       <c r="S737" s="3"/>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19">
       <c r="A738" s="1"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -16059,7 +17279,7 @@
       <c r="R738" s="3"/>
       <c r="S738" s="3"/>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19">
       <c r="A739" s="1"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -16080,7 +17300,7 @@
       <c r="R739" s="3"/>
       <c r="S739" s="3"/>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19">
       <c r="A740" s="1"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -16101,7 +17321,7 @@
       <c r="R740" s="3"/>
       <c r="S740" s="3"/>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19">
       <c r="A741" s="1"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -16122,7 +17342,7 @@
       <c r="R741" s="3"/>
       <c r="S741" s="3"/>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19">
       <c r="A742" s="1"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -16143,7 +17363,7 @@
       <c r="R742" s="3"/>
       <c r="S742" s="3"/>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19">
       <c r="A743" s="1"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -16164,7 +17384,7 @@
       <c r="R743" s="3"/>
       <c r="S743" s="3"/>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19">
       <c r="A744" s="1"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -16185,7 +17405,7 @@
       <c r="R744" s="3"/>
       <c r="S744" s="3"/>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19">
       <c r="A745" s="1"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -16206,7 +17426,7 @@
       <c r="R745" s="3"/>
       <c r="S745" s="3"/>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19">
       <c r="A746" s="1"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -16227,7 +17447,7 @@
       <c r="R746" s="3"/>
       <c r="S746" s="3"/>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19">
       <c r="A747" s="1"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -16248,7 +17468,7 @@
       <c r="R747" s="3"/>
       <c r="S747" s="3"/>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19">
       <c r="A748" s="1"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -16269,7 +17489,7 @@
       <c r="R748" s="3"/>
       <c r="S748" s="3"/>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19">
       <c r="A749" s="1"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -16290,7 +17510,7 @@
       <c r="R749" s="3"/>
       <c r="S749" s="3"/>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19">
       <c r="A750" s="1"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -16311,7 +17531,7 @@
       <c r="R750" s="3"/>
       <c r="S750" s="3"/>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19">
       <c r="A751" s="1"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -16332,7 +17552,7 @@
       <c r="R751" s="3"/>
       <c r="S751" s="3"/>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19">
       <c r="A752" s="1"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -16353,7 +17573,7 @@
       <c r="R752" s="3"/>
       <c r="S752" s="3"/>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:19">
       <c r="A753" s="1"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -16374,7 +17594,7 @@
       <c r="R753" s="3"/>
       <c r="S753" s="3"/>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:19">
       <c r="A754" s="1"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -16395,7 +17615,7 @@
       <c r="R754" s="3"/>
       <c r="S754" s="3"/>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:19">
       <c r="A755" s="1"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -16416,7 +17636,7 @@
       <c r="R755" s="3"/>
       <c r="S755" s="3"/>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:19">
       <c r="A756" s="1"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -16437,7 +17657,7 @@
       <c r="R756" s="3"/>
       <c r="S756" s="3"/>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:19">
       <c r="A757" s="1"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -16458,7 +17678,7 @@
       <c r="R757" s="3"/>
       <c r="S757" s="3"/>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19">
       <c r="A758" s="1"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -16479,7 +17699,7 @@
       <c r="R758" s="3"/>
       <c r="S758" s="3"/>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19">
       <c r="A759" s="1"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -16500,7 +17720,7 @@
       <c r="R759" s="3"/>
       <c r="S759" s="3"/>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:19">
       <c r="A760" s="1"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -16521,7 +17741,7 @@
       <c r="R760" s="3"/>
       <c r="S760" s="3"/>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19">
       <c r="A761" s="1"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -16542,7 +17762,7 @@
       <c r="R761" s="3"/>
       <c r="S761" s="3"/>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19">
       <c r="A762" s="1"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -16563,7 +17783,7 @@
       <c r="R762" s="3"/>
       <c r="S762" s="3"/>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:19">
       <c r="A763" s="1"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -16584,7 +17804,7 @@
       <c r="R763" s="3"/>
       <c r="S763" s="3"/>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:19">
       <c r="A764" s="1"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -16605,7 +17825,7 @@
       <c r="R764" s="3"/>
       <c r="S764" s="3"/>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:19">
       <c r="A765" s="1"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -16626,7 +17846,7 @@
       <c r="R765" s="3"/>
       <c r="S765" s="3"/>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:19">
       <c r="A766" s="1"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -16647,7 +17867,7 @@
       <c r="R766" s="3"/>
       <c r="S766" s="3"/>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19">
       <c r="A767" s="1"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -16668,7 +17888,7 @@
       <c r="R767" s="3"/>
       <c r="S767" s="3"/>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19">
       <c r="A768" s="1"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -16689,7 +17909,7 @@
       <c r="R768" s="3"/>
       <c r="S768" s="3"/>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:19">
       <c r="A769" s="1"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -16710,7 +17930,7 @@
       <c r="R769" s="3"/>
       <c r="S769" s="3"/>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:19">
       <c r="A770" s="1"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -16731,7 +17951,7 @@
       <c r="R770" s="3"/>
       <c r="S770" s="3"/>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:19">
       <c r="A771" s="1"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -16752,7 +17972,7 @@
       <c r="R771" s="3"/>
       <c r="S771" s="3"/>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:19">
       <c r="A772" s="1"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -16773,7 +17993,7 @@
       <c r="R772" s="3"/>
       <c r="S772" s="3"/>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:19">
       <c r="A773" s="1"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -16794,7 +18014,7 @@
       <c r="R773" s="3"/>
       <c r="S773" s="3"/>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:19">
       <c r="A774" s="1"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -16815,7 +18035,7 @@
       <c r="R774" s="3"/>
       <c r="S774" s="3"/>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:19">
       <c r="A775" s="1"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -16836,7 +18056,7 @@
       <c r="R775" s="3"/>
       <c r="S775" s="3"/>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:19">
       <c r="A776" s="1"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -16857,7 +18077,7 @@
       <c r="R776" s="3"/>
       <c r="S776" s="3"/>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:19">
       <c r="A777" s="1"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -16878,7 +18098,7 @@
       <c r="R777" s="3"/>
       <c r="S777" s="3"/>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:19">
       <c r="A778" s="1"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -16899,7 +18119,7 @@
       <c r="R778" s="3"/>
       <c r="S778" s="3"/>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:19">
       <c r="A779" s="1"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -16920,7 +18140,7 @@
       <c r="R779" s="3"/>
       <c r="S779" s="3"/>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:19">
       <c r="A780" s="1"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -16941,7 +18161,7 @@
       <c r="R780" s="3"/>
       <c r="S780" s="3"/>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:19">
       <c r="A781" s="1"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -16962,7 +18182,7 @@
       <c r="R781" s="3"/>
       <c r="S781" s="3"/>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:19">
       <c r="A782" s="1"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -16983,7 +18203,7 @@
       <c r="R782" s="3"/>
       <c r="S782" s="3"/>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:19">
       <c r="A783" s="1"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -17004,7 +18224,7 @@
       <c r="R783" s="3"/>
       <c r="S783" s="3"/>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:19">
       <c r="A784" s="1"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -17025,7 +18245,7 @@
       <c r="R784" s="3"/>
       <c r="S784" s="3"/>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:19">
       <c r="A785" s="1"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -17046,7 +18266,7 @@
       <c r="R785" s="3"/>
       <c r="S785" s="3"/>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:19">
       <c r="A786" s="1"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -17067,7 +18287,7 @@
       <c r="R786" s="3"/>
       <c r="S786" s="3"/>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:19">
       <c r="A787" s="1"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -17088,7 +18308,7 @@
       <c r="R787" s="3"/>
       <c r="S787" s="3"/>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:19">
       <c r="A788" s="1"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -17109,7 +18329,7 @@
       <c r="R788" s="3"/>
       <c r="S788" s="3"/>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:19">
       <c r="A789" s="1"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -17130,7 +18350,7 @@
       <c r="R789" s="3"/>
       <c r="S789" s="3"/>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:19">
       <c r="A790" s="1"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -17151,7 +18371,7 @@
       <c r="R790" s="3"/>
       <c r="S790" s="3"/>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:19">
       <c r="A791" s="1"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -17172,7 +18392,7 @@
       <c r="R791" s="3"/>
       <c r="S791" s="3"/>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:19">
       <c r="A792" s="1"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -17193,7 +18413,7 @@
       <c r="R792" s="3"/>
       <c r="S792" s="3"/>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:19">
       <c r="A793" s="1"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -17214,7 +18434,7 @@
       <c r="R793" s="3"/>
       <c r="S793" s="3"/>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:19">
       <c r="A794" s="1"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -17235,7 +18455,7 @@
       <c r="R794" s="3"/>
       <c r="S794" s="3"/>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:19">
       <c r="A795" s="1"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -17256,7 +18476,7 @@
       <c r="R795" s="3"/>
       <c r="S795" s="3"/>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:19">
       <c r="A796" s="1"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -17277,7 +18497,7 @@
       <c r="R796" s="3"/>
       <c r="S796" s="3"/>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:19">
       <c r="A797" s="1"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -17298,7 +18518,7 @@
       <c r="R797" s="3"/>
       <c r="S797" s="3"/>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:19">
       <c r="A798" s="1"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -17319,7 +18539,7 @@
       <c r="R798" s="3"/>
       <c r="S798" s="3"/>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:19">
       <c r="A799" s="1"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -17340,7 +18560,7 @@
       <c r="R799" s="3"/>
       <c r="S799" s="3"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:19">
       <c r="A800" s="1"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -17361,7 +18581,7 @@
       <c r="R800" s="3"/>
       <c r="S800" s="3"/>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:19">
       <c r="A801" s="1"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -17382,7 +18602,7 @@
       <c r="R801" s="3"/>
       <c r="S801" s="3"/>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:19">
       <c r="A802" s="1"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -17403,7 +18623,7 @@
       <c r="R802" s="3"/>
       <c r="S802" s="3"/>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:19">
       <c r="A803" s="1"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -17424,7 +18644,7 @@
       <c r="R803" s="3"/>
       <c r="S803" s="3"/>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:19">
       <c r="A804" s="1"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -17445,7 +18665,7 @@
       <c r="R804" s="3"/>
       <c r="S804" s="3"/>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:19">
       <c r="A805" s="1"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -17466,7 +18686,7 @@
       <c r="R805" s="3"/>
       <c r="S805" s="3"/>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:19">
       <c r="A806" s="1"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -17487,7 +18707,7 @@
       <c r="R806" s="3"/>
       <c r="S806" s="3"/>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:19">
       <c r="A807" s="1"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -17508,7 +18728,7 @@
       <c r="R807" s="3"/>
       <c r="S807" s="3"/>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:19">
       <c r="A808" s="1"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -17529,27 +18749,6 @@
       <c r="R808" s="3"/>
       <c r="S808" s="3"/>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A809" s="1"/>
-      <c r="B809" s="3"/>
-      <c r="C809" s="3"/>
-      <c r="D809" s="3"/>
-      <c r="E809" s="3"/>
-      <c r="F809" s="3"/>
-      <c r="G809" s="3"/>
-      <c r="H809" s="3"/>
-      <c r="I809" s="3"/>
-      <c r="J809" s="3"/>
-      <c r="K809" s="3"/>
-      <c r="L809" s="3"/>
-      <c r="M809" s="3"/>
-      <c r="N809" s="3"/>
-      <c r="O809" s="3"/>
-      <c r="P809" s="3"/>
-      <c r="Q809" s="3"/>
-      <c r="R809" s="3"/>
-      <c r="S809" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_oc.xlsx
+++ b/historico_oc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D2E5C6-63A4-476A-93CF-70D0EF206B32}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10649DC-4681-4B4D-AF0B-55BF673E2CAB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1648,15 +1648,15 @@
   <dimension ref="A1:S808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B2" s="3">
         <v>3.0280999999999998</v>
@@ -1768,102 +1768,46 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="4">
-        <v>45011</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.7970836734693876</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3">
-        <v>3.0441938775510202</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2.9102602105455486</v>
-      </c>
-      <c r="S3" s="3">
-        <v>3.0117267346938776</v>
-      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>45012</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.7970836734693876</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3">
-        <v>3.0441938775510202</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R4" s="3">
-        <v>2.9618000000000002</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3.0036999999999998</v>
-      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>

--- a/historico_oc.xlsx
+++ b/historico_oc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10649DC-4681-4B4D-AF0B-55BF673E2CAB}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B8A198-4023-44F9-9F36-30ADB4956E1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1648,15 +1648,15 @@
   <dimension ref="A1:S808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1720,577 +1720,1329 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>45013</v>
+        <v>44989</v>
       </c>
       <c r="B2" s="3">
-        <v>3.0280999999999998</v>
+        <v>3.1672959183673468</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0291000000000001</v>
+        <v>3.1682959183673471</v>
       </c>
       <c r="D2" s="3">
-        <v>2.7970836734693876</v>
+        <v>2.8587836734693877</v>
       </c>
       <c r="E2" s="3">
-        <v>3.1873979591836736</v>
+        <v>3.3265918367346941</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
-        <v>3.0012959183673469</v>
+        <v>3.1404999999999998</v>
       </c>
       <c r="I2" s="3">
-        <v>3.0498979591836739</v>
+        <v>3.1891000000000003</v>
       </c>
       <c r="J2" s="3">
         <v>3.0471999999999997</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>3.0613979591836737</v>
+        <v>3.2005918367346942</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O2" s="3"/>
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.9089999999999998</v>
+      </c>
       <c r="P2" s="3">
-        <v>2.9731999999999998</v>
+        <v>3.1123979591836739</v>
       </c>
       <c r="Q2" s="3">
-        <v>2.9456000000000002</v>
+        <v>3.0847959183673468</v>
       </c>
       <c r="R2" s="3">
-        <v>2.9102602105455486</v>
+        <v>3.2430136573134063</v>
       </c>
       <c r="S2" s="3">
-        <v>3.0117267346938776</v>
+        <v>3.121886456400742</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="4">
+        <v>44990</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="N3" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.2430136573134063</v>
+      </c>
+      <c r="S3" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4">
+        <v>44991</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="N4" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3.2508568873578056</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="N5" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3.1474681500797379</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="N6" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3.0948472605881743</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="N7" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.0563676906275914</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="N8" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="N9" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="N10" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="N11" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3.0902460831237342</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="N12" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2.9724983062459258</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="N13" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.8747658791013153</v>
+      </c>
+      <c r="S13" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.1672959183673468</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.1682959183673471</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.8587836734693877</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.3265918367346941</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="3">
+        <v>3.1404999999999998</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.1891000000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>3.2005918367346942</v>
+      </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="N14" s="3">
+        <v>3.1833979591836736</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.1123979591836739</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3.0847959183673468</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.8444192385591829</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3.121886456400742</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="N15" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2.8329645516913553</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="N16" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2.8329645516913553</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="N17" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2.8329645516913553</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="N18" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2.8504172920065471</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="N19" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2.9029270186570879</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="N20" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2.9624552914628812</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="N21" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2.9341444796381215</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.0291000000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="H22" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="N22" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2.9177178102247878</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2.982251762523191</v>
+      </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.0301204081632656</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="N23" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2.9177178102247878</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2.9823445269016702</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.0311408163265305</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="N24" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2.9177178102247878</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2.9824372912801489</v>
+      </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.0311408163265305</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="N25" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2.9618493660461849</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2.9824372912801489</v>
+      </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.0280999999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.0311408163265305</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.1873979591836736</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="3">
+        <v>3.0012959183673469</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.0498979591836739</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>3.0613979591836737</v>
+      </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="N26" s="3">
+        <v>3.0441938775510202</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2.7696020408163267</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2.9731999999999998</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2.9456000000000002</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2.9695088105370213</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2.9824372912801489</v>
+      </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.1413000000000002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.1423000000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.714983673469388</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.3006000000000002</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="3">
+        <v>3.1145</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3.1630918367346941</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3.0471999999999997</v>
+      </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>3.1746020408163269</v>
+      </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="N27" s="3">
+        <v>3.1574</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2.8827959183673468</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3.0864000000000003</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3.0587999999999997</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2.9336744154566379</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3.0851612244897955</v>
+      </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1"/>

--- a/historico_oc.xlsx
+++ b/historico_oc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B8A198-4023-44F9-9F36-30ADB4956E1F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{2973C0BA-E95C-4BCD-B2AF-2A11919E9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53EBF5A-AD82-4DF6-86EE-6A26BFBC1949}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00E768A0-8CF3-49B4-B2F0-53911FEDE6F6}"/>
   </bookViews>
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:S808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+      <selection activeCell="B2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1720,1329 +1720,579 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>44989</v>
+        <v>45016</v>
       </c>
       <c r="B2" s="3">
-        <v>3.1672959183673468</v>
+        <v>3.1413000000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>3.1682959183673471</v>
+        <v>3.1423000000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>2.8587836734693877</v>
+        <v>2.827783673469388</v>
       </c>
       <c r="E2" s="3">
-        <v>3.3265918367346941</v>
+        <v>3.3006000000000002</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
-        <v>3.1404999999999998</v>
+        <v>3.1145</v>
       </c>
       <c r="I2" s="3">
-        <v>3.1891000000000003</v>
+        <v>3.1630918367346941</v>
       </c>
       <c r="J2" s="3">
         <v>3.0471999999999997</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>3.2005918367346942</v>
+        <v>3.1746020408163269</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3">
-        <v>3.1833979591836736</v>
+        <v>3.1574</v>
       </c>
       <c r="O2" s="3">
-        <v>2.9089999999999998</v>
+        <v>2.8827959183673468</v>
       </c>
       <c r="P2" s="3">
-        <v>3.1123979591836739</v>
+        <v>3.0864000000000003</v>
       </c>
       <c r="Q2" s="3">
-        <v>3.0847959183673468</v>
+        <v>3.0587999999999997</v>
       </c>
       <c r="R2" s="3">
-        <v>3.2430136573134063</v>
+        <v>2.9198059578970348</v>
       </c>
       <c r="S2" s="3">
-        <v>3.121886456400742</v>
+        <v>3.0954157699443412</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="4">
-        <v>44990</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P3" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3.2430136573134063</v>
-      </c>
-      <c r="S3" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>44991</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O4" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R4" s="3">
-        <v>3.2508568873578056</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>44992</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R5" s="3">
-        <v>3.1474681500797379</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P6" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R6" s="3">
-        <v>3.0948472605881743</v>
-      </c>
-      <c r="S6" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>44994</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O7" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R7" s="3">
-        <v>3.0563676906275914</v>
-      </c>
-      <c r="S7" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>44995</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3.124185080116558</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>44996</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3.124185080116558</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="1">
-        <v>44997</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3.124185080116558</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="1">
-        <v>44998</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O11" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R11" s="3">
-        <v>3.0902460831237342</v>
-      </c>
-      <c r="S11" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>44999</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2.9724983062459258</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="1">
-        <v>45000</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2.8747658791013153</v>
-      </c>
-      <c r="S13" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="1">
-        <v>45001</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3.1672959183673468</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3.1682959183673471</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.8587836734693877</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.3265918367346941</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>3.1404999999999998</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3.1891000000000003</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>3.2005918367346942</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3">
-        <v>3.1833979591836736</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3.1123979591836739</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3.0847959183673468</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2.8444192385591829</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3.121886456400742</v>
-      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="1">
-        <v>45002</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2.8329645516913553</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="1">
-        <v>45003</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P16" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2.8329645516913553</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="1">
-        <v>45004</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2.8329645516913553</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="1">
-        <v>45005</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2.8504172920065471</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="1">
-        <v>45006</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O19" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P19" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R19" s="3">
-        <v>2.9029270186570879</v>
-      </c>
-      <c r="S19" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="1">
-        <v>45007</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R20" s="3">
-        <v>2.9624552914628812</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="1">
-        <v>45008</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O21" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P21" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R21" s="3">
-        <v>2.9341444796381215</v>
-      </c>
-      <c r="S21" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="1">
-        <v>45009</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3.0291000000000001</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2.9177178102247878</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2.982251762523191</v>
-      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="1">
-        <v>45010</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.0301204081632656</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2.9177178102247878</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2.9823445269016702</v>
-      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="1">
-        <v>45011</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3.0311408163265305</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2.9177178102247878</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2.9824372912801489</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="1">
-        <v>45012</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3.0311408163265305</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I25" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O25" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P25" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R25" s="3">
-        <v>2.9618493660461849</v>
-      </c>
-      <c r="S25" s="3">
-        <v>2.9824372912801489</v>
-      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="1">
-        <v>45013</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3.0280999999999998</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3.0311408163265305</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3.1873979591836736</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>3.0012959183673469</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3.0498979591836739</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <v>3.0613979591836737</v>
-      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <v>3.0441938775510202</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2.7696020408163267</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2.9731999999999998</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2.9456000000000002</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2.9695088105370213</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2.9824372912801489</v>
-      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="1">
-        <v>45014</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3.1413000000000002</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3.1423000000000001</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2.714983673469388</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.3006000000000002</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>3.1145</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3.1630918367346941</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3.0471999999999997</v>
-      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <v>3.1746020408163269</v>
-      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3">
-        <v>3.1574</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2.8827959183673468</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3.0864000000000003</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3.0587999999999997</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2.9336744154566379</v>
-      </c>
-      <c r="S27" s="3">
-        <v>3.0851612244897955</v>
-      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1"/>
